--- a/공부메모.xlsx
+++ b/공부메모.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E266242A-D1A9-4266-93D0-29A2EFFBC71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE82A9-2C26-4DE9-8293-819DBDB991FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="720" windowWidth="19110" windowHeight="18480" firstSheet="7" activeTab="12" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
+    <workbookView xWindow="19200" yWindow="30" windowWidth="19155" windowHeight="19170" firstSheet="7" activeTab="13" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="참고 및 용어정리" sheetId="15" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="클래스" sheetId="26" r:id="rId11"/>
     <sheet name="예외처리" sheetId="25" r:id="rId12"/>
     <sheet name="내장함수" sheetId="27" r:id="rId13"/>
+    <sheet name="라이브러리" sheetId="28" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="1945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="2163">
   <si>
     <t>True</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6834,12 +6835,752 @@
     <t>제곱: pow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람이 만들어 놓은 프로그램을 가져오는 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import 라이브러리 [as 변경이름] # 라이브러리를 가져옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>from 라이브러리 import 이름 [as 변경이름] # 라이브러리에 있는 특정 함수만 가져옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import time # time이라는 라이브러리를 가져옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 라이브러리의 이름이 길 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import time as t # time이라는 라이브러리를 가져와서 t라고 지시함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time.a # time이라는 라이브러리에서 a라는 함수를 가져옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a # t라고 지시된 라이브러리에서 a라는 함수를 가져옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬에서 많이 쓰이는 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas, numpy, tensorflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(time.time())</t>
+  </si>
+  <si>
+    <t>print(time.ctime())</t>
+  </si>
+  <si>
+    <t>Tue Oct 11 13:29:15 2022</t>
+  </si>
+  <si>
+    <t>1665462555.836348</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 1970년도 1월1일 오전0시0분0초에서 부터 1665462555.836348초 만큼 지남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이 쓰이는 라이브러리 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import calendar</t>
+  </si>
+  <si>
+    <t>print(calendar.calendar(2022))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당년도 달력이 쭉나옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(calendar.weekday(2015,12,31))</t>
+  </si>
+  <si>
+    <t># 요일을 찾는 함수, 0이 월요일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>randam 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import random</t>
+  </si>
+  <si>
+    <t>print(random.random())</t>
+  </si>
+  <si>
+    <t>print(random.randint(1,10))</t>
+  </si>
+  <si>
+    <t>0.74223394569357</t>
+  </si>
+  <si>
+    <t># 0~1 사이의 무작위 값을 나타냄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 1~10 사이의 무작위 정수, 10도 포함되는 범위, 라이브러리 만든 사람이 10까지 포함시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random.shuffle(a)</t>
+  </si>
+  <si>
+    <t>[5, 2, 3, 4, 1]</t>
+  </si>
+  <si>
+    <t># 무작위로 섞음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random.sample(a,3)</t>
+  </si>
+  <si>
+    <t>print(random.sample(a,3))</t>
+  </si>
+  <si>
+    <t>[3, 1, 5]</t>
+  </si>
+  <si>
+    <t># a에서 3가지 값만 무작위로 꺼냄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import time as tm</t>
+  </si>
+  <si>
+    <t>from random import randint</t>
+  </si>
+  <si>
+    <t>print(tm.ctime().split(" ")[0])</t>
+  </si>
+  <si>
+    <t>a=randint(1,10)</t>
+  </si>
+  <si>
+    <t>    b=input("숫자를 입력하시오: ")</t>
+  </si>
+  <si>
+    <t>    b=int(b)</t>
+  </si>
+  <si>
+    <t>    if b==a:</t>
+  </si>
+  <si>
+    <t>        print("맞췄습니다!")</t>
+  </si>
+  <si>
+    <t>        print("틀렸습니다.")</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>숫자를 입력하시오: 1</t>
+  </si>
+  <si>
+    <t>틀렸습니다.</t>
+  </si>
+  <si>
+    <t>Numpy 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다차원의 배열 자료구조를 다룰 수 있으며, 벡터와 행렬을 사용하는 선형대수 계산에 주로 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝에서 행렬이 필수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import numpy as np # 많은 사람들이 np라는 이름으로 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.array : 행렬변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4 5 6]</t>
+  </si>
+  <si>
+    <t># np.array 없이 [1,2,3]+3을 하면 Error</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=np.array([1,2,3])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(a+3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=np.array([[1,2,3],[4,5,6]])</t>
+  </si>
+  <si>
+    <t>&lt;class 'numpy.ndarray'&gt;</t>
+  </si>
+  <si>
+    <t>(2, 3)</t>
+  </si>
+  <si>
+    <t># 행렬이라는 뜻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 행이 2개 열이 3개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.ndim : 차원 확임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=np.array([[1,2,3],[4,5,6]])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(type(b))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(b.shape)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(a.ndim)</t>
+  </si>
+  <si>
+    <t>print(b.ndim)</t>
+  </si>
+  <si>
+    <t># 1차원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 2차원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 2차원 리스트를 2차원 행렬로 만들어좀 [[],[]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차원: [[[]],[[]]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행렬을 표시할때는 쉼표 "," 가 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c=[1,2,3]</t>
+  </si>
+  <si>
+    <t>print(type(c))</t>
+  </si>
+  <si>
+    <t>d=np.array(c)</t>
+  </si>
+  <si>
+    <t>print(type(d))</t>
+  </si>
+  <si>
+    <t>print(d, d.dtype)</t>
+  </si>
+  <si>
+    <t>&lt;class 'list'&gt;</t>
+  </si>
+  <si>
+    <t>[1 2 3] int32</t>
+  </si>
+  <si>
+    <t>[1 2 3] int64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e=[1,2,3,'test']</t>
+  </si>
+  <si>
+    <t>f=np.array(e)</t>
+  </si>
+  <si>
+    <t>print(f,f.dtype)</t>
+  </si>
+  <si>
+    <t>['1' '2' '3' 'test'] &lt;U21</t>
+  </si>
+  <si>
+    <t># int6비트로 이루어져 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 모두 문자열이 됨, U는 유니코드를 뜻함. 전체적인 문자열 형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g=[1,2,3,4.0]</t>
+  </si>
+  <si>
+    <t>h=np.array(g)</t>
+  </si>
+  <si>
+    <t>print(h,h.dtype)</t>
+  </si>
+  <si>
+    <t>[1. 2. 3. 4.] float64</t>
+  </si>
+  <si>
+    <t># 전부 실수로 바뀜. 메모리가 켜지게됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i=np.array([1,2,3])</t>
+  </si>
+  <si>
+    <t>j=i.astype('float64')</t>
+  </si>
+  <si>
+    <t>print(j,j.dtype)</t>
+  </si>
+  <si>
+    <t>[1. 2. 3.] float64</t>
+  </si>
+  <si>
+    <t># 행렬에 문자열이 있을 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 행렬에 정수와 실수가 같이 있을 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 정수 행렬을 전부 실수(입력한 float64)로 바꿈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=i.astype('int32')</t>
+  </si>
+  <si>
+    <t>print(k,k.dtype)</t>
+  </si>
+  <si>
+    <t># int64에서 in32로 바꿈. 메모리 용량을 64비트에서 32비트로 줄임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># float을 int로 만들경우 소수점아래 수들이 다 날아감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.astype : 데이터 타입 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.arange : 헹렬 생성하기 range()와 비슷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=np.array([[1],[2],[3]])</t>
+  </si>
+  <si>
+    <t>print(a,a.shape,a.dtype)</t>
+  </si>
+  <si>
+    <t>[[1] [2] [3]] (3, 1) int64</t>
+  </si>
+  <si>
+    <t>[0 1 2 3 4 5 6 7 8 9] int64 (10,)</t>
+  </si>
+  <si>
+    <t>l=np.arange(10)</t>
+  </si>
+  <si>
+    <t>print(l)</t>
+  </si>
+  <si>
+    <t>print(l.dtype,l.shape)</t>
+  </si>
+  <si>
+    <t>print(a.shape)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3,)</t>
+  </si>
+  <si>
+    <t>np.zeros : 0으로 채워진 행렬 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m=np.zeros((3,2),dtype="int32")</t>
+  </si>
+  <si>
+    <t>print(m, m.dtype, m.shape)</t>
+  </si>
+  <si>
+    <t>[[0 0] [0 0] [0 0]] int32 (3, 2)</t>
+  </si>
+  <si>
+    <t># 0으로 채워진 3행 2열짜리 32비트 정수로된 행렬을 만들겠다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.ones : 1로 채워진 행렬 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=np.ones((3,2))</t>
+  </si>
+  <si>
+    <t>print(n, n.dtype, n.shape)</t>
+  </si>
+  <si>
+    <t>[[1. 1.] [1. 1.] [1. 1.]] float64 (3, 2)</t>
+  </si>
+  <si>
+    <t>np.reshape : 차원 바꾸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o=np.arange(10)</t>
+  </si>
+  <si>
+    <t>print('o: \n', o)</t>
+  </si>
+  <si>
+    <t>p=o.reshape(2,5)</t>
+  </si>
+  <si>
+    <t>print("p: \n", p)</t>
+  </si>
+  <si>
+    <t>o: [0 1 2 3 4 5 6 7 8 9] p: [[0 1 2 3 4] [5 6 7 8 9]]</t>
+  </si>
+  <si>
+    <t># 개수가 같아야만 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q=np.arange(8)</t>
+  </si>
+  <si>
+    <t>r=q.reshape(2,2,2)</t>
+  </si>
+  <si>
+    <t>print("r: \n", r)</t>
+  </si>
+  <si>
+    <t>r: [[[0 1] [2 3]] [[4 5] [6 7]]]</t>
+  </si>
+  <si>
+    <t># 2*2*2 의 3차원 행렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 입력한 2행 5열의 2차원 행렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index 사용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=np.arange(start=1, stop=10)</t>
+  </si>
+  <si>
+    <t>print("s:",s)</t>
+  </si>
+  <si>
+    <t>t=s[2]</t>
+  </si>
+  <si>
+    <t>print("t:",t)</t>
+  </si>
+  <si>
+    <t>s: [1 2 3 4 5 6 7 8 9]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t: 3</t>
+  </si>
+  <si>
+    <t>a=np.arange(start=1, stop=10)</t>
+  </si>
+  <si>
+    <t>b=a.reshape(3,3)</t>
+  </si>
+  <si>
+    <t>print('(row=0, col=0) index를 가르키는 값:',b[0,0])</t>
+  </si>
+  <si>
+    <t>print('(row=0, col=1) index를 가르키는 값:',b[0,1])</t>
+  </si>
+  <si>
+    <t># 리스트랑 접근방식 동일: [-1], 슬라이싱[:] 가능 값바꾸기도 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print("b:\n",b)</t>
+  </si>
+  <si>
+    <t>print("b[0:2,0:2]\n",b[0:2,0:2])</t>
+  </si>
+  <si>
+    <t>print("shape:",b[0:2,0:2].shape)</t>
+  </si>
+  <si>
+    <t>print(b[0],"shape:",b[0].shape)</t>
+  </si>
+  <si>
+    <t>tolist : 행렬 → 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># list() 와 동일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c=b[[0,1],2]</t>
+  </si>
+  <si>
+    <t>print(c.tolist())</t>
+  </si>
+  <si>
+    <t>[3 6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 0, 1 인덱스에 해당하는 행의 2 인덱스에 해당하는 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불리언 인덱싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=a[a&gt;5]</t>
+  </si>
+  <si>
+    <t>c=a[a==1]</t>
+  </si>
+  <si>
+    <t>print(a&gt;5)</t>
+  </si>
+  <si>
+    <t>print(a==1)</t>
+  </si>
+  <si>
+    <t>d=np.array([False,False,True,True,True,False,False,False,False])</t>
+  </si>
+  <si>
+    <t>e=a[d]</t>
+  </si>
+  <si>
+    <t>print(d)</t>
+  </si>
+  <si>
+    <t>print(e)</t>
+  </si>
+  <si>
+    <t># 행렬 a 에서 5보다 큰값들을 b라는 행렬로 만듬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># a 행렬에서 ==1 의 만족 여부를 행렬로 만듬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># a 행렬에서 ==1 인 값들을 행렬로 만듬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># a 행렬에서 &gt;5 의 만족 여부를 행렬로 만듬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 불값으로된 리스트를 행렬로 만듬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># a 행렬에서 불값으로된 d 행렬을 만족하는 값들을 행렬로 만듬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f=np.array([2,3,4])</t>
+  </si>
+  <si>
+    <t>g=a[f]</t>
+  </si>
+  <si>
+    <t>print(f)</t>
+  </si>
+  <si>
+    <t>print(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># [2,3,4] 리스트를 [2 3 4] 행렬로 만듬 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># a 행렬에서 f 행렬의 값을 인덱스로 넣어서 해당 인덱스에 해당하는 값들을 가져옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행렬 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=np.array([3,1,9,5])</t>
+  </si>
+  <si>
+    <t>print("원본행렬:", a)</t>
+  </si>
+  <si>
+    <t>b=np.sort(a)</t>
+  </si>
+  <si>
+    <t>print("np.sort() 호출 후 반환된 정렬 행렬:",b)</t>
+  </si>
+  <si>
+    <t>print("np.sort() 호출 후 원본 행렬:",a)</t>
+  </si>
+  <si>
+    <t>c=a.sort()</t>
+  </si>
+  <si>
+    <t>print("a.sort() 호출 후 반환된 행렬:",c)</t>
+  </si>
+  <si>
+    <t>print("a.sort() 호출 후 원본 행렬:",a)</t>
+  </si>
+  <si>
+    <t>c=a</t>
+  </si>
+  <si>
+    <t>print("c=a 지정 후 반환된 행렬:",c)</t>
+  </si>
+  <si>
+    <t>d=np.sort(a)[::-1]</t>
+  </si>
+  <si>
+    <t>print("슬라이싱[::-1]으로 행렬 뒤집기(내림차순 정렬):",d)</t>
+  </si>
+  <si>
+    <t>print("원본행렬:\n",a)</t>
+  </si>
+  <si>
+    <t>b=np.sort(a,axis=0)</t>
+  </si>
+  <si>
+    <t>c=np.sort(a,axis=1)</t>
+  </si>
+  <si>
+    <t>print("로우(행)방향으로 정렬:\n",b)</t>
+  </si>
+  <si>
+    <t>print("컬럼(열)방향으로 정렬:\n",c)</t>
+  </si>
+  <si>
+    <t># axis=1 은 열방향을 뜻함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># axis=0 은 행방향을 뜻함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=np.array([[20,5,100],[2,50,600],[1,30,200]])</t>
+  </si>
+  <si>
+    <t>b=np.argsort(a)</t>
+  </si>
+  <si>
+    <t>c=np.argsort(a)[::-1]</t>
+  </si>
+  <si>
+    <t>print("행렬 오름차순 정렬 시 원본 행렬의 인덱스:",b)</t>
+  </si>
+  <si>
+    <t>print("행렬 내림차순 정렬 시 원본 행렬의 인덱스:",c)</t>
+  </si>
+  <si>
+    <t>b=np.array([[7,8],[9,10],[11,12]])</t>
+  </si>
+  <si>
+    <t>c=np.dot(a,b)</t>
+  </si>
+  <si>
+    <t>print("행렬 내적 결과:\n",c)</t>
+  </si>
+  <si>
+    <t>행렬 내적 : np.dot   행렬끼리의 곱셉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전치행렬 : np.transpose      행과 열 바꾸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=np.array([[1,2],[3,4]])</t>
+  </si>
+  <si>
+    <t>b=np.transpose(a)</t>
+  </si>
+  <si>
+    <t>print("원본 행렬:\n",a)</t>
+  </si>
+  <si>
+    <t>print("전치 행렬:\n",b)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6906,6 +7647,13 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="D2Coding"/>
       <family val="3"/>
@@ -7029,7 +7777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7153,14 +7901,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7177,6 +7928,539 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>161725</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B547FA5-0F72-EAE1-7081-F95CE6401E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420225" y="14535150"/>
+          <a:ext cx="1600000" cy="780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104560</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>18956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8559E4D-2FFE-6E45-9FB8-1AB0AD8AB553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="22412325"/>
+          <a:ext cx="1723810" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152132</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>180881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99ECCAE3-1CB6-2C77-A286-C7C9DAB47B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="23907750"/>
+          <a:ext cx="2142857" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47377</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>142738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2E93DA-AF79-5208-9F9A-19A9BE057194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="25431750"/>
+          <a:ext cx="1980952" cy="1095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>18931</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>18882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63C4BF2-7DF5-0653-DB3F-982F477605DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="26965275"/>
+          <a:ext cx="952381" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>142474</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>37956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C37AFDB-6DB3-5598-BEC4-534C884ACAB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="29651325"/>
+          <a:ext cx="3209524" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>180386</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>47411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F95DD0-A2BB-0C51-8888-FEB6611F0856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="35385375"/>
+          <a:ext cx="4714286" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>27983</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>37881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE9FE08-6BC8-C931-E335-E97A87E99B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="38385750"/>
+          <a:ext cx="4733333" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>171200</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>75876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB43442-007B-C57D-4191-F194F1554492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="40633650"/>
+          <a:ext cx="2000000" cy="2590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>170908</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>95190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8EC2AE-36D5-DADD-B428-B31242ABBB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="43910250"/>
+          <a:ext cx="4333333" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76032</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>133262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2796628A-FD83-C32B-410B-2755105FBB91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076575" y="45243750"/>
+          <a:ext cx="1342857" cy="704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85607</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>142708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C3C302-5D9A-D58F-24F7-E94D01C0139C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="46529625"/>
+          <a:ext cx="942857" cy="1333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7670,238 +8954,238 @@
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="43" t="s">
         <v>430</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41" t="s">
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43" t="s">
         <v>431</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41" t="s">
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41" t="s">
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41" t="s">
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41" t="s">
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41" t="s">
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="41" t="s">
+      <c r="AB48" s="43"/>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="43"/>
+      <c r="AE48" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="AF48" s="41"/>
-      <c r="AG48" s="41"/>
-      <c r="AH48" s="41"/>
-      <c r="AI48" s="41" t="s">
+      <c r="AF48" s="43"/>
+      <c r="AG48" s="43"/>
+      <c r="AH48" s="43"/>
+      <c r="AI48" s="43" t="s">
         <v>438</v>
       </c>
-      <c r="AJ48" s="41"/>
-      <c r="AK48" s="41"/>
-      <c r="AL48" s="41"/>
-      <c r="AM48" s="41" t="s">
+      <c r="AJ48" s="43"/>
+      <c r="AK48" s="43"/>
+      <c r="AL48" s="43"/>
+      <c r="AM48" s="43" t="s">
         <v>439</v>
       </c>
-      <c r="AN48" s="41"/>
-      <c r="AO48" s="41"/>
-      <c r="AP48" s="41"/>
+      <c r="AN48" s="43"/>
+      <c r="AO48" s="43"/>
+      <c r="AP48" s="43"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="43" t="s">
         <v>440</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41" t="s">
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43" t="s">
         <v>441</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41" t="s">
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43" t="s">
         <v>442</v>
       </c>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41" t="s">
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41" t="s">
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43" t="s">
         <v>444</v>
       </c>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41" t="s">
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43" t="s">
         <v>445</v>
       </c>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41" t="s">
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="43"/>
+      <c r="AA49" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41"/>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41" t="s">
+      <c r="AB49" s="43"/>
+      <c r="AC49" s="43"/>
+      <c r="AD49" s="43"/>
+      <c r="AE49" s="43" t="s">
         <v>447</v>
       </c>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41"/>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41" t="s">
+      <c r="AF49" s="43"/>
+      <c r="AG49" s="43"/>
+      <c r="AH49" s="43"/>
+      <c r="AI49" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41"/>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="41" t="s">
+      <c r="AJ49" s="43"/>
+      <c r="AK49" s="43"/>
+      <c r="AL49" s="43"/>
+      <c r="AM49" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="AN49" s="41"/>
-      <c r="AO49" s="41"/>
-      <c r="AP49" s="41"/>
+      <c r="AN49" s="43"/>
+      <c r="AO49" s="43"/>
+      <c r="AP49" s="43"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41" t="s">
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41" t="s">
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43" t="s">
         <v>452</v>
       </c>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41" t="s">
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41" t="s">
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="T50" s="41"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="41"/>
-      <c r="W50" s="41" t="s">
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="41" t="s">
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
+      <c r="AA50" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="AB50" s="41"/>
-      <c r="AC50" s="41"/>
-      <c r="AD50" s="41"/>
-      <c r="AE50" s="41" t="s">
+      <c r="AB50" s="43"/>
+      <c r="AC50" s="43"/>
+      <c r="AD50" s="43"/>
+      <c r="AE50" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="AF50" s="41"/>
-      <c r="AG50" s="41"/>
-      <c r="AH50" s="41"/>
-      <c r="AI50" s="41" t="s">
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="43"/>
+      <c r="AH50" s="43"/>
+      <c r="AI50" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="AJ50" s="41"/>
-      <c r="AK50" s="41"/>
-      <c r="AL50" s="41"/>
-      <c r="AM50" s="41" t="s">
+      <c r="AJ50" s="43"/>
+      <c r="AK50" s="43"/>
+      <c r="AL50" s="43"/>
+      <c r="AM50" s="43" t="s">
         <v>459</v>
       </c>
-      <c r="AN50" s="41"/>
-      <c r="AO50" s="41"/>
-      <c r="AP50" s="41"/>
+      <c r="AN50" s="43"/>
+      <c r="AO50" s="43"/>
+      <c r="AP50" s="43"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41" t="s">
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43" t="s">
         <v>461</v>
       </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41" t="s">
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41"/>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41"/>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="41"/>
-      <c r="AH51" s="41"/>
-      <c r="AI51" s="41"/>
-      <c r="AJ51" s="41"/>
-      <c r="AK51" s="41"/>
-      <c r="AL51" s="41"/>
-      <c r="AM51" s="41"/>
-      <c r="AN51" s="41"/>
-      <c r="AO51" s="41"/>
-      <c r="AP51" s="41"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="43"/>
+      <c r="AB51" s="43"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="43"/>
+      <c r="AF51" s="43"/>
+      <c r="AG51" s="43"/>
+      <c r="AH51" s="43"/>
+      <c r="AI51" s="43"/>
+      <c r="AJ51" s="43"/>
+      <c r="AK51" s="43"/>
+      <c r="AL51" s="43"/>
+      <c r="AM51" s="43"/>
+      <c r="AN51" s="43"/>
+      <c r="AO51" s="43"/>
+      <c r="AP51" s="43"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -7989,110 +9273,110 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
       <c r="G71" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H71" s="41" t="s">
+      <c r="H71" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="H72" s="43" t="s">
         <v>487</v>
       </c>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
       <c r="O72" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P72" s="41" t="s">
+      <c r="P72" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
       <c r="G73" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H73" s="41" t="s">
+      <c r="H73" s="43" t="s">
         <v>487</v>
       </c>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
       <c r="O73" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P73" s="41" t="s">
+      <c r="P73" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="41"/>
-      <c r="S73" s="41"/>
-      <c r="T73" s="41"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
       <c r="G74" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H74" s="41" t="s">
+      <c r="H74" s="43" t="s">
         <v>488</v>
       </c>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
       <c r="O74" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P74" s="41" t="s">
+      <c r="P74" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="Q74" s="41"/>
-      <c r="R74" s="41"/>
-      <c r="S74" s="41"/>
-      <c r="T74" s="41"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C75" s="26"/>
@@ -8181,6 +9465,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="H73:N73"/>
+    <mergeCell ref="H74:N74"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="C73:F74"/>
+    <mergeCell ref="C71:F72"/>
+    <mergeCell ref="H71:N71"/>
+    <mergeCell ref="H72:N72"/>
+    <mergeCell ref="AE50:AH50"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="AI48:AL48"/>
+    <mergeCell ref="AI49:AL49"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="W48:Z48"/>
+    <mergeCell ref="W49:Z49"/>
+    <mergeCell ref="W50:Z50"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA48:AD48"/>
+    <mergeCell ref="AA49:AD49"/>
+    <mergeCell ref="AA50:AD50"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O51:R51"/>
     <mergeCell ref="S51:V51"/>
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="K49:N49"/>
@@ -8197,39 +9514,6 @@
     <mergeCell ref="G49:J49"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="W50:Z50"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA48:AD48"/>
-    <mergeCell ref="AA49:AD49"/>
-    <mergeCell ref="AA50:AD50"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="C73:F74"/>
-    <mergeCell ref="C71:F72"/>
-    <mergeCell ref="H71:N71"/>
-    <mergeCell ref="H72:N72"/>
-    <mergeCell ref="AE50:AH50"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="AI48:AL48"/>
-    <mergeCell ref="AI49:AL49"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="W48:Z48"/>
-    <mergeCell ref="W49:Z49"/>
-    <mergeCell ref="H73:N73"/>
-    <mergeCell ref="H74:N74"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8982,7 +10266,7 @@
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9571,7 +10855,7 @@
       <c r="E48" s="22" t="s">
         <v>1747</v>
       </c>
-      <c r="W48" s="42" t="s">
+      <c r="W48" s="41" t="s">
         <v>1747</v>
       </c>
     </row>
@@ -9579,7 +10863,7 @@
       <c r="E49" s="22" t="s">
         <v>1792</v>
       </c>
-      <c r="W49" s="42" t="s">
+      <c r="W49" s="41" t="s">
         <v>1809</v>
       </c>
     </row>
@@ -9587,7 +10871,7 @@
       <c r="E50" s="22" t="s">
         <v>1787</v>
       </c>
-      <c r="W50" s="42" t="s">
+      <c r="W50" s="41" t="s">
         <v>1810</v>
       </c>
     </row>
@@ -9601,7 +10885,7 @@
       <c r="O51" s="24" t="s">
         <v>1793</v>
       </c>
-      <c r="W51" s="42" t="s">
+      <c r="W51" s="41" t="s">
         <v>1811</v>
       </c>
     </row>
@@ -9609,7 +10893,7 @@
       <c r="E52" s="22" t="s">
         <v>1790</v>
       </c>
-      <c r="W52" s="42" t="s">
+      <c r="W52" s="41" t="s">
         <v>1812</v>
       </c>
     </row>
@@ -9617,36 +10901,36 @@
       <c r="E53" s="22" t="s">
         <v>1741</v>
       </c>
-      <c r="W53" s="42" t="s">
+      <c r="W53" s="41" t="s">
         <v>1813</v>
       </c>
     </row>
     <row r="54" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="W54" s="42" t="s">
+      <c r="W54" s="41" t="s">
         <v>1814</v>
       </c>
     </row>
     <row r="55" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="41" t="s">
         <v>1747</v>
       </c>
-      <c r="W55" s="42" t="s">
+      <c r="W55" s="41" t="s">
         <v>1815</v>
       </c>
     </row>
     <row r="56" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="41" t="s">
         <v>1788</v>
       </c>
-      <c r="W56" s="42" t="s">
+      <c r="W56" s="41" t="s">
         <v>1816</v>
       </c>
     </row>
     <row r="57" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="41" t="s">
         <v>1787</v>
       </c>
-      <c r="W57" s="42" t="s">
+      <c r="W57" s="41" t="s">
         <v>1749</v>
       </c>
       <c r="AP57" s="24" t="s">
@@ -9660,7 +10944,7 @@
       </c>
     </row>
     <row r="58" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="41" t="s">
         <v>1783</v>
       </c>
       <c r="N58" s="24" t="s">
@@ -9669,7 +10953,7 @@
       <c r="O58" s="24" t="s">
         <v>1791</v>
       </c>
-      <c r="W58" s="42" t="s">
+      <c r="W58" s="41" t="s">
         <v>1762</v>
       </c>
       <c r="AQ58" s="24" t="s">
@@ -9677,10 +10961,10 @@
       </c>
     </row>
     <row r="59" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E59" s="42" t="s">
+      <c r="E59" s="41" t="s">
         <v>1789</v>
       </c>
-      <c r="W59" s="42" t="s">
+      <c r="W59" s="41" t="s">
         <v>1741</v>
       </c>
       <c r="AQ59" s="24" t="s">
@@ -9688,28 +10972,28 @@
       </c>
     </row>
     <row r="60" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E60" s="42" t="s">
+      <c r="E60" s="41" t="s">
         <v>1749</v>
       </c>
-      <c r="W60" s="42" t="s">
+      <c r="W60" s="41" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="61" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="41" t="s">
         <v>1790</v>
       </c>
     </row>
     <row r="62" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="41" t="s">
         <v>1741</v>
       </c>
     </row>
     <row r="63" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E63" s="42"/>
+      <c r="E63" s="41"/>
     </row>
     <row r="64" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E64" s="42"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C65" s="24" t="s">
@@ -9972,8 +11256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5CA641-B8F6-4669-B0D7-7E945B33C29D}">
   <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="AM97" sqref="AM96:AN97"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="Z91" sqref="Z91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9981,7 +11265,7 @@
     <col min="1" max="1" width="2.7109375" style="5"/>
     <col min="2" max="10" width="2.7109375" style="24"/>
     <col min="11" max="11" width="2.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="43" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="42" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" style="24" customWidth="1"/>
     <col min="14" max="16384" width="2.7109375" style="24"/>
   </cols>
@@ -10197,7 +11481,7 @@
       <c r="K38" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="L38" s="43">
+      <c r="L38" s="42">
         <v>1.23</v>
       </c>
     </row>
@@ -10215,7 +11499,7 @@
       <c r="C42" s="14" t="s">
         <v>1856</v>
       </c>
-      <c r="L42" s="43" t="s">
+      <c r="L42" s="42" t="s">
         <v>286</v>
       </c>
     </row>
@@ -10223,7 +11507,7 @@
       <c r="C43" s="14" t="s">
         <v>1857</v>
       </c>
-      <c r="L43" s="43" t="s">
+      <c r="L43" s="42" t="s">
         <v>286</v>
       </c>
     </row>
@@ -10231,7 +11515,7 @@
       <c r="C44" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="L44" s="43" t="s">
+      <c r="L44" s="42" t="s">
         <v>286</v>
       </c>
     </row>
@@ -10242,7 +11526,7 @@
       <c r="K45" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="L45" s="43" t="s">
+      <c r="L45" s="42" t="s">
         <v>287</v>
       </c>
     </row>
@@ -10250,7 +11534,7 @@
       <c r="C46" s="14" t="s">
         <v>1860</v>
       </c>
-      <c r="L46" s="43" t="s">
+      <c r="L46" s="42" t="s">
         <v>287</v>
       </c>
     </row>
@@ -10258,7 +11542,7 @@
       <c r="C47" s="14" t="s">
         <v>1861</v>
       </c>
-      <c r="L47" s="43" t="s">
+      <c r="L47" s="42" t="s">
         <v>286</v>
       </c>
     </row>
@@ -10266,7 +11550,7 @@
       <c r="C48" s="14" t="s">
         <v>1862</v>
       </c>
-      <c r="L48" s="43" t="s">
+      <c r="L48" s="42" t="s">
         <v>287</v>
       </c>
     </row>
@@ -10282,7 +11566,7 @@
       <c r="J51" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="K51" s="43" t="s">
+      <c r="K51" s="42" t="s">
         <v>286</v>
       </c>
     </row>
@@ -10370,7 +11654,7 @@
       <c r="B65" s="14" t="s">
         <v>1882</v>
       </c>
-      <c r="L65" s="43" t="s">
+      <c r="L65" s="42" t="s">
         <v>291</v>
       </c>
       <c r="M65" s="24" t="s">
@@ -10640,13 +11924,13 @@
       <c r="A117" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="AE117" s="43"/>
+      <c r="AE117" s="42"/>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B118" s="22" t="s">
         <v>1918</v>
       </c>
-      <c r="L118" s="43" t="s">
+      <c r="L118" s="42" t="s">
         <v>381</v>
       </c>
     </row>
@@ -10657,7 +11941,7 @@
       <c r="K119" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="L119" s="43" t="s">
+      <c r="L119" s="42" t="s">
         <v>381</v>
       </c>
     </row>
@@ -10665,7 +11949,7 @@
       <c r="B120" s="22" t="s">
         <v>1920</v>
       </c>
-      <c r="L120" s="43" t="s">
+      <c r="L120" s="42" t="s">
         <v>1921</v>
       </c>
       <c r="N120" s="24" t="s">
@@ -10785,6 +12069,1251 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE327160-21E7-4CA1-958C-4EB8851236A7}">
+  <dimension ref="A1:BA248"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="AS242" sqref="AS242"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="5"/>
+    <col min="2" max="16384" width="2.7109375" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="24" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="24" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="24" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="24" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="24" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="1" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="23" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="23" t="s">
+        <v>1957</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>1960</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="23" t="s">
+        <v>1958</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C28" s="23" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C29" s="23" t="s">
+        <v>1965</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C30" s="23" t="s">
+        <v>1967</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="R30" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="S30" s="24" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="24" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="23" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="23" t="s">
+        <v>1971</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>1973</v>
+      </c>
+      <c r="U34" s="24" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="23" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="U35" s="24" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C37" s="23" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C38" s="23" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="23" t="s">
+        <v>1976</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>1977</v>
+      </c>
+      <c r="Q39" s="24" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C40" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C42" s="23" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="23" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C44" s="23" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C45" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C46" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="N46" s="24" t="s">
+        <v>1981</v>
+      </c>
+      <c r="T46" s="24" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C49" s="27" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C50" s="27" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C51" s="27"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C52" s="27" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C53" s="27"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C54" s="27" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C55" s="27" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C56" s="27" t="s">
+        <v>1987</v>
+      </c>
+      <c r="R56" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="S56" s="24" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C57" s="27" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S57" s="24" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C58" s="27" t="s">
+        <v>1989</v>
+      </c>
+      <c r="S58" s="24" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C59" s="27" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C60" s="27" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C61" s="27" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="24" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="65" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="C65" s="24" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="66" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="C66" s="24" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="67" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="C67" s="24" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="69" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="71" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="C71" s="24" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="72" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="C72" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="D73" s="23" t="s">
+        <v>2002</v>
+      </c>
+      <c r="M73" s="24" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="74" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="D74" s="23" t="s">
+        <v>2003</v>
+      </c>
+      <c r="L74" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="M74" s="24" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="75" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="D75" s="23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="77" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="D77" s="23" t="s">
+        <v>2012</v>
+      </c>
+      <c r="P77" s="24" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AH77" s="24" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AP77" s="23" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BA77" s="23" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="78" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="D78" s="23" t="s">
+        <v>2013</v>
+      </c>
+      <c r="O78" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="P78" s="24" t="s">
+        <v>2005</v>
+      </c>
+      <c r="Y78" s="24" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AH78" s="24" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AP78" s="23" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AZ78" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="D79" s="23" t="s">
+        <v>2014</v>
+      </c>
+      <c r="P79" s="24" t="s">
+        <v>2006</v>
+      </c>
+      <c r="Y79" s="24" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AG79" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH79" s="24" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C81" s="24" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D83" s="23" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="K83" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="M83" s="24" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D84" s="23" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K84" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="M84" s="24" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D86" s="23" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D87" s="23" t="s">
+        <v>2023</v>
+      </c>
+      <c r="L87" s="24" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D88" s="23" t="s">
+        <v>2024</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="L88" s="24" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D89" s="23" t="s">
+        <v>2025</v>
+      </c>
+      <c r="L89" s="24" t="s">
+        <v>2029</v>
+      </c>
+      <c r="R89" s="24" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D90" s="23" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="91" spans="3:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D91" s="44"/>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D92" s="23" t="s">
+        <v>2030</v>
+      </c>
+      <c r="V92" s="24" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D93" s="23" t="s">
+        <v>2031</v>
+      </c>
+      <c r="V93" s="24" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D94" s="23" t="s">
+        <v>2032</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="L94" s="23" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D96" s="23" t="s">
+        <v>2036</v>
+      </c>
+      <c r="U96" s="24" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D97" s="23" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="L97" s="23" t="s">
+        <v>2039</v>
+      </c>
+      <c r="U97" s="24" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D98" s="23" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C100" s="24" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D102" s="23" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="103" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D103" s="23" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L103" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="M103" s="23" t="s">
+        <v>2044</v>
+      </c>
+      <c r="U103" s="24" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="104" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D104" s="23" t="s">
+        <v>2043</v>
+      </c>
+      <c r="U104" s="24" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="106" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D106" s="23" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="107" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D107" s="23" t="s">
+        <v>2049</v>
+      </c>
+      <c r="L107" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="M107" s="23" t="s">
+        <v>2028</v>
+      </c>
+      <c r="S107" s="24" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="109" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C109" s="24" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="111" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D111" s="23" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="112" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D112" s="23" t="s">
+        <v>2059</v>
+      </c>
+      <c r="M112" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="N112" s="23" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="113" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="D113" s="23" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="115" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C115" s="24" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="117" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="D117" s="23" t="s">
+        <v>2064</v>
+      </c>
+      <c r="P117" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q117" s="23" t="s">
+        <v>2066</v>
+      </c>
+      <c r="AD117" s="24" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="118" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="D118" s="23" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="123" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C123" s="24" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="125" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="D125" s="23" t="s">
+        <v>2069</v>
+      </c>
+      <c r="P125" s="23" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="126" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="D126" s="23" t="s">
+        <v>2070</v>
+      </c>
+      <c r="O126" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="D127" s="23" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="131" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C131" s="24" t="s">
+        <v>2072</v>
+      </c>
+      <c r="M131" s="24" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="133" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D133" s="23" t="s">
+        <v>2073</v>
+      </c>
+      <c r="M133" s="23" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="134" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D134" s="23" t="s">
+        <v>2074</v>
+      </c>
+      <c r="L134" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="135" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D135" s="23" t="s">
+        <v>2075</v>
+      </c>
+      <c r="Y135" s="24" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="136" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D136" s="23" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="141" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D141" s="23" t="s">
+        <v>2079</v>
+      </c>
+      <c r="L141" s="23" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="142" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D142" s="23" t="s">
+        <v>2080</v>
+      </c>
+      <c r="K142" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y142" s="24" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="143" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D143" s="23" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="144" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D144" s="23"/>
+    </row>
+    <row r="145" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D145" s="23"/>
+    </row>
+    <row r="150" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C150" s="24" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I150" s="24" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="152" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D152" s="23" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="153" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D153" s="23" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="154" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D154" s="23" t="s">
+        <v>2088</v>
+      </c>
+      <c r="O154" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="P154" s="23" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="155" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D155" s="23" t="s">
+        <v>2089</v>
+      </c>
+      <c r="P155" s="23" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="157" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D157" s="23" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="158" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D158" s="23" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="159" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D159" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="W159" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="160" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D160" s="23" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="161" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D161" s="23" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="164" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D164" s="23" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="165" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D165" s="23" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="166" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D166" s="23" t="s">
+        <v>2097</v>
+      </c>
+      <c r="P166" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D167" s="23" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D168" s="23" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="169" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D169" s="23" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="170" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D170" s="23" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D171" s="23" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="172" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D172" s="23" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C174" s="24" t="s">
+        <v>2101</v>
+      </c>
+      <c r="L174" s="24" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="176" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D176" s="23" t="s">
+        <v>2103</v>
+      </c>
+      <c r="M176" s="24" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="177" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D177" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="L177" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="M177" s="24" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="178" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D178" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="M178" s="24" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="180" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C180" s="24" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="182" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D182" s="23" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="183" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D183" s="23" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="184" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D184" s="23" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="185" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D185" s="23" t="s">
+        <v>2113</v>
+      </c>
+      <c r="AC185" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="186" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D186" s="23" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="187" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D187" s="23" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="188" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D188" s="23" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="189" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D189" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="I189" s="24" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="190" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D190" s="23" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I190" s="24" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="191" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D191" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I191" s="24" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="192" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D192" s="23" t="s">
+        <v>2112</v>
+      </c>
+      <c r="I192" s="24" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="193" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D193" s="23" t="s">
+        <v>2115</v>
+      </c>
+      <c r="I193" s="24" t="s">
+        <v>2121</v>
+      </c>
+      <c r="U193" s="23"/>
+    </row>
+    <row r="194" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D194" s="23" t="s">
+        <v>2116</v>
+      </c>
+      <c r="I194" s="24" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="195" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D195" s="23" t="s">
+        <v>2125</v>
+      </c>
+      <c r="I195" s="24" t="s">
+        <v>2127</v>
+      </c>
+      <c r="U195" s="23"/>
+    </row>
+    <row r="196" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D196" s="23" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I196" s="24" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="198" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C198" s="24" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="200" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D200" s="23" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="201" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D201" s="23" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="202" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D202" s="23" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="203" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D203" s="23" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="204" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D204" s="23" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="205" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D205" s="23" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Z205" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="206" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D206" s="23" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="207" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D207" s="23" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="208" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D208" s="23" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="209" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D209" s="23" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="210" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D210" s="23" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="211" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D211" s="23" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="212" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D212" s="23" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="214" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D214" s="23" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="215" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D215" s="23" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="216" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D216" s="23" t="s">
+        <v>2143</v>
+      </c>
+      <c r="M216" s="24" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="217" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D217" s="23" t="s">
+        <v>2144</v>
+      </c>
+      <c r="M217" s="24" t="s">
+        <v>2147</v>
+      </c>
+      <c r="W217" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="218" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D218" s="23" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="219" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D219" s="23" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="229" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D229" s="23" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="230" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D230" s="23" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="231" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D231" s="23" t="s">
+        <v>2151</v>
+      </c>
+      <c r="X231" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="232" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D232" s="23" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="233" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D233" s="23" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="236" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C236" s="24" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="238" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D238" s="23" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="239" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D239" s="23" t="s">
+        <v>2154</v>
+      </c>
+      <c r="Q239" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="240" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D240" s="23" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="241" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D241" s="23" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="243" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C243" s="24" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="245" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D245" s="23" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="246" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D246" s="23" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="247" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D247" s="23" t="s">
+        <v>2161</v>
+      </c>
+      <c r="N247" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="248" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D248" s="23" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17492,8 +20021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BFB5C9-DA4D-4210-8B9A-D77850984240}">
   <dimension ref="A1:AX144"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18412,8 +20941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D096D51-ADEA-4209-B8DC-5D72E85FA078}">
   <dimension ref="A1:BE113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AT11" sqref="AT11"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/공부메모.xlsx
+++ b/공부메모.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE82A9-2C26-4DE9-8293-819DBDB991FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B6AED6-6AB8-4B74-9E85-F1A8987EA06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="30" windowWidth="19155" windowHeight="19170" firstSheet="7" activeTab="13" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="2163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="2251">
   <si>
     <t>True</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6499,18 +6499,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a: 추가모드, 파일의 마지막에 새로운 내용을 추가시킬 때 사용, attach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r: 읽기모드, 파일을 읽기만 할 때 사용, read</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>w: 쓰기모드, 파일에 내용을 쓸 때 사용, write</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>절대값: abs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7574,6 +7562,340 @@
   </si>
   <si>
     <t>print("전치 행렬:\n",b)</t>
+  </si>
+  <si>
+    <t>print(bool(None))</t>
+  </si>
+  <si>
+    <t>print(type(None))</t>
+  </si>
+  <si>
+    <t>print(type(False))</t>
+  </si>
+  <si>
+    <t>if False == 0:</t>
+  </si>
+  <si>
+    <t>    print("False==0이다")</t>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;class 'NoneType'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;class 'bool'&gt;</t>
+  </si>
+  <si>
+    <t>False==0이다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다스 Pandas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석을 할 떄 가장 많이 쓰이는 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 형태의 데이터를 다루는 기능 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀,CSV 등 다양한 데이터 형식 지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결측치 처리기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형태 바꾸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 삭제 및 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹화, 정렬, 결합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시계열 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 및 날짜/시간 지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 가시화: 많은 그래프 처리 라이브러리와의 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀이랑 연동됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형태 CSV는 데이터를 콤마(,)로 구분한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다스의 read_csv() 함수를 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C,D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0,b0,c0,d0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1,b1,c1,d1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2,b2,c2,d2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3,b3,c3,d3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 탭(Tab)으로 구분한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다스에는 TSV파일을 읽어오는 함수는 따로 제공하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 판다스의 read_csv()함수를 사용하여 TSV파일을 읽어올 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_csv("파일이름.csv")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_csv("파일이름.csv", sep=",")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 기본값은 sep="," 이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># TSV를 읽기위해선 sep="\t"로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_csv("파일이름.csv", sep="\t")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r: 읽기모드, 파일을 읽기만 할 때 사용, read, rt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w: 쓰기모드, 파일에 내용을 쓸 때 사용, write, wt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a: 추가모드, 파일의 마지막에 새로운 내용을 추가시킬 때 사용, attach, at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열: 시리즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표: 데이터 프레임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.Series() : 시리즈 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딕셔너리로 시리즈 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A={"a":1,"b":2,"c":3}</t>
+  </si>
+  <si>
+    <t>pd.Series(A)</t>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트로 시리즈 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.Series(B)</t>
+  </si>
+  <si>
+    <t>B=["a","b","c"]</t>
+  </si>
+  <si>
+    <t># 행이 0부터 부여됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C=pd.Series(B,index=["가","나","다"])</t>
+  </si>
+  <si>
+    <t>C=pd.Series(B,index=["가","나","다"])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type(C)</t>
+  </si>
+  <si>
+    <t># 시리즈 자료형 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(B.index)</t>
+  </si>
+  <si>
+    <t>C.index</t>
+  </si>
+  <si>
+    <t>print(C.index)</t>
+  </si>
+  <si>
+    <t>print(C.values)</t>
+  </si>
+  <si>
+    <t># 시리즈 행 이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 자료형 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 행 및 값 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딕셔너리로 데이터프레임 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A={"한글":['가','나','다'],"영어":['a','b','c'],"숫지":[1,2,3]}</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(A)</t>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A)</t>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A,index=['1행','2행','3행'])</t>
+  </si>
+  <si>
+    <t># index=[] 로 행 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 행이 a,b,c, 열번호는 없는 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A={"한글":['가','나','다'],"영어":['a','b','c'],"숫자":[1,2,3]}</t>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A,index=['1행','2행','3행'],columns=['영어','숫자','한글'])</t>
+  </si>
+  <si>
+    <t>열 순서 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A,index=['1행','2행','3행'],columns=['영어','숫자','1st','2nd'])</t>
+  </si>
+  <si>
+    <t>리스트로 데이터 프레임 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=[[1,"1st","일"],[2,'2nd',"이"],[3,'3rd','삼']]</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(A,index=['1행','2행','3행'],columns=['숫자','순서','한글'])</t>
+  </si>
+  <si>
+    <t>데이터 프레임 열 이름 확인 : 데이터프레임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A,index=['1행','2행','3행'],columns=['숫자','순서','한글'])</t>
+  </si>
+  <si>
+    <t>print(B.columns)</t>
+  </si>
+  <si>
+    <t># 행이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 열이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=["a","b","c"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 시리즈 값 확인, 행렬로 나옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A={"한글":['가','나','다'],"영어":['a','b','c'],"숫자":[1,2,3]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(B.index)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeIndex(start=0, stop=3, step=1)</t>
   </si>
 </sst>
 </file>
@@ -7907,10 +8229,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7934,13 +8256,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>161725</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>28477</xdr:rowOff>
@@ -7978,13 +8300,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>104560</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>18956</xdr:rowOff>
@@ -8022,13 +8344,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>152132</xdr:colOff>
       <xdr:row>128</xdr:row>
       <xdr:rowOff>180881</xdr:rowOff>
@@ -8066,13 +8388,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>47377</xdr:colOff>
       <xdr:row>138</xdr:row>
       <xdr:rowOff>142738</xdr:rowOff>
@@ -8110,13 +8432,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>141</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>18931</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>18882</xdr:rowOff>
@@ -8154,13 +8476,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>142474</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>37956</xdr:rowOff>
@@ -8198,13 +8520,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>180386</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>47411</xdr:rowOff>
@@ -8242,13 +8564,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>201</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>27983</xdr:colOff>
       <xdr:row>210</xdr:row>
       <xdr:rowOff>37881</xdr:rowOff>
@@ -8286,13 +8608,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>212</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>171200</xdr:colOff>
       <xdr:row>226</xdr:row>
       <xdr:rowOff>75876</xdr:rowOff>
@@ -8330,13 +8652,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>230</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>170908</xdr:colOff>
       <xdr:row>232</xdr:row>
       <xdr:rowOff>95190</xdr:rowOff>
@@ -8374,13 +8696,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>237</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>76032</xdr:colOff>
       <xdr:row>240</xdr:row>
       <xdr:rowOff>133262</xdr:rowOff>
@@ -8418,13 +8740,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>243</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>85607</xdr:colOff>
       <xdr:row>250</xdr:row>
       <xdr:rowOff>142708</xdr:rowOff>
@@ -8452,6 +8774,534 @@
         <a:xfrm>
           <a:off x="2581275" y="46529625"/>
           <a:ext cx="942857" cy="1333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47482</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>114185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D92DA8-A717-3E56-D7AD-A8E6F9C93CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="54149625"/>
+          <a:ext cx="1142857" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142724</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>9411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C35AB49-8DCF-BF17-D0FC-95ED2F362243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="55387875"/>
+          <a:ext cx="1209524" cy="914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66400</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>133205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D14ADE4-6D5C-0AB8-EA1B-458EAD4FB77A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="56597550"/>
+          <a:ext cx="2200000" cy="1161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>171009</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>57085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECFD06F-2CD7-3CAC-C7A4-1E6EB2686FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="58302525"/>
+          <a:ext cx="3523809" cy="523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>171212</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>180783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214CBE7C-3074-6A70-BC58-E1A94D2FD7F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="59321700"/>
+          <a:ext cx="1904762" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>142109</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>66507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C125CDB1-5645-362B-9A2D-3D12FB4633EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="61112400"/>
+          <a:ext cx="6123809" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>28375</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>47504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BDBE21-1CD1-C7D7-5A6D-F6742C1DFD2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="62798325"/>
+          <a:ext cx="1600000" cy="971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>18843</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>95131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DAF03F-3163-6F1C-FE57-D7DF8868D3EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="64008000"/>
+          <a:ext cx="1657143" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>56894</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>28462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C661647-6C33-97EB-2DA6-87F0BB9D9E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="65131950"/>
+          <a:ext cx="2047619" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>47452</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>95061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80717C2-F28B-D58A-FB3D-8520816A9B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="66113025"/>
+          <a:ext cx="1380952" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9273</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>114106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39008438-7BF4-34D5-81FE-E5D6FB3F7F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="67427475"/>
+          <a:ext cx="2019048" cy="1552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>113793</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>180907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56EFC20-0EB2-DC34-3646-FFABE448A749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010275" y="69456300"/>
+          <a:ext cx="4057143" cy="542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8954,238 +9804,238 @@
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43" t="s">
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43" t="s">
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43" t="s">
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43" t="s">
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43" t="s">
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="43"/>
-      <c r="Z48" s="43"/>
-      <c r="AA48" s="43" t="s">
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="AB48" s="43"/>
-      <c r="AC48" s="43"/>
-      <c r="AD48" s="43"/>
-      <c r="AE48" s="43" t="s">
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="AF48" s="43"/>
-      <c r="AG48" s="43"/>
-      <c r="AH48" s="43"/>
-      <c r="AI48" s="43" t="s">
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AJ48" s="43"/>
-      <c r="AK48" s="43"/>
-      <c r="AL48" s="43"/>
-      <c r="AM48" s="43" t="s">
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AN48" s="43"/>
-      <c r="AO48" s="43"/>
-      <c r="AP48" s="43"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
+      <c r="AP48" s="44"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="44" t="s">
         <v>440</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43" t="s">
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43" t="s">
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43" t="s">
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43" t="s">
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43" t="s">
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="43"/>
-      <c r="Z49" s="43"/>
-      <c r="AA49" s="43" t="s">
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="AB49" s="43"/>
-      <c r="AC49" s="43"/>
-      <c r="AD49" s="43"/>
-      <c r="AE49" s="43" t="s">
+      <c r="AB49" s="44"/>
+      <c r="AC49" s="44"/>
+      <c r="AD49" s="44"/>
+      <c r="AE49" s="44" t="s">
         <v>447</v>
       </c>
-      <c r="AF49" s="43"/>
-      <c r="AG49" s="43"/>
-      <c r="AH49" s="43"/>
-      <c r="AI49" s="43" t="s">
+      <c r="AF49" s="44"/>
+      <c r="AG49" s="44"/>
+      <c r="AH49" s="44"/>
+      <c r="AI49" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="AJ49" s="43"/>
-      <c r="AK49" s="43"/>
-      <c r="AL49" s="43"/>
-      <c r="AM49" s="43" t="s">
+      <c r="AJ49" s="44"/>
+      <c r="AK49" s="44"/>
+      <c r="AL49" s="44"/>
+      <c r="AM49" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="AN49" s="43"/>
-      <c r="AO49" s="43"/>
-      <c r="AP49" s="43"/>
+      <c r="AN49" s="44"/>
+      <c r="AO49" s="44"/>
+      <c r="AP49" s="44"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43" t="s">
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44" t="s">
         <v>451</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43" t="s">
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43" t="s">
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43" t="s">
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43" t="s">
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44" t="s">
         <v>455</v>
       </c>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="Z50" s="43"/>
-      <c r="AA50" s="43" t="s">
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="AB50" s="43"/>
-      <c r="AC50" s="43"/>
-      <c r="AD50" s="43"/>
-      <c r="AE50" s="43" t="s">
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="AF50" s="43"/>
-      <c r="AG50" s="43"/>
-      <c r="AH50" s="43"/>
-      <c r="AI50" s="43" t="s">
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="AJ50" s="43"/>
-      <c r="AK50" s="43"/>
-      <c r="AL50" s="43"/>
-      <c r="AM50" s="43" t="s">
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="44"/>
+      <c r="AL50" s="44"/>
+      <c r="AM50" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="AN50" s="43"/>
-      <c r="AO50" s="43"/>
-      <c r="AP50" s="43"/>
+      <c r="AN50" s="44"/>
+      <c r="AO50" s="44"/>
+      <c r="AP50" s="44"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43" t="s">
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44" t="s">
         <v>461</v>
       </c>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43" t="s">
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="43"/>
-      <c r="AA51" s="43"/>
-      <c r="AB51" s="43"/>
-      <c r="AC51" s="43"/>
-      <c r="AD51" s="43"/>
-      <c r="AE51" s="43"/>
-      <c r="AF51" s="43"/>
-      <c r="AG51" s="43"/>
-      <c r="AH51" s="43"/>
-      <c r="AI51" s="43"/>
-      <c r="AJ51" s="43"/>
-      <c r="AK51" s="43"/>
-      <c r="AL51" s="43"/>
-      <c r="AM51" s="43"/>
-      <c r="AN51" s="43"/>
-      <c r="AO51" s="43"/>
-      <c r="AP51" s="43"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="44"/>
+      <c r="AC51" s="44"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="44"/>
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="44"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="44"/>
+      <c r="AM51" s="44"/>
+      <c r="AN51" s="44"/>
+      <c r="AO51" s="44"/>
+      <c r="AP51" s="44"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -9273,110 +10123,110 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="44" t="s">
         <v>480</v>
       </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
       <c r="G71" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H71" s="43" t="s">
+      <c r="H71" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
       <c r="G72" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H72" s="43" t="s">
+      <c r="H72" s="44" t="s">
         <v>487</v>
       </c>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
       <c r="O72" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P72" s="43" t="s">
+      <c r="P72" s="44" t="s">
         <v>486</v>
       </c>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
       <c r="G73" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H73" s="43" t="s">
+      <c r="H73" s="44" t="s">
         <v>487</v>
       </c>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
       <c r="O73" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P73" s="43" t="s">
+      <c r="P73" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
       <c r="G74" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H74" s="43" t="s">
+      <c r="H74" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
       <c r="O74" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P74" s="43" t="s">
+      <c r="P74" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C75" s="26"/>
@@ -9465,11 +10315,34 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="H73:N73"/>
-    <mergeCell ref="H74:N74"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="AE48:AH48"/>
+    <mergeCell ref="AE49:AH49"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="W50:Z50"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA48:AD48"/>
+    <mergeCell ref="AA49:AD49"/>
+    <mergeCell ref="AA50:AD50"/>
+    <mergeCell ref="AA51:AD51"/>
     <mergeCell ref="AM48:AP48"/>
     <mergeCell ref="AM49:AP49"/>
     <mergeCell ref="AM50:AP50"/>
@@ -9486,34 +10359,11 @@
     <mergeCell ref="AI51:AL51"/>
     <mergeCell ref="W48:Z48"/>
     <mergeCell ref="W49:Z49"/>
-    <mergeCell ref="W50:Z50"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA48:AD48"/>
-    <mergeCell ref="AA49:AD49"/>
-    <mergeCell ref="AA50:AD50"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="AE48:AH48"/>
-    <mergeCell ref="AE49:AH49"/>
-    <mergeCell ref="S48:V48"/>
-    <mergeCell ref="S49:V49"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="H73:N73"/>
+    <mergeCell ref="H74:N74"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9525,7 +10375,7 @@
   <dimension ref="A1:AX130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11256,8 +12106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5CA641-B8F6-4669-B0D7-7E945B33C29D}">
   <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="Z91" sqref="Z91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11441,32 +12291,32 @@
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C30" s="24" t="s">
-        <v>1848</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C31" s="24" t="s">
-        <v>1849</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C32" s="24" t="s">
-        <v>1847</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="24" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -11476,7 +12326,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D38" s="14" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="K38" s="24" t="s">
         <v>291</v>
@@ -11487,17 +12337,17 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C42" s="14" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="L42" s="42" t="s">
         <v>286</v>
@@ -11505,7 +12355,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C43" s="14" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="L43" s="42" t="s">
         <v>286</v>
@@ -11513,7 +12363,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" s="14" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="L44" s="42" t="s">
         <v>286</v>
@@ -11521,7 +12371,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" s="14" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="K45" s="24" t="s">
         <v>291</v>
@@ -11532,7 +12382,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" s="14" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="L46" s="42" t="s">
         <v>287</v>
@@ -11540,7 +12390,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" s="14" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="L47" s="42" t="s">
         <v>286</v>
@@ -11548,7 +12398,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" s="14" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="L48" s="42" t="s">
         <v>287</v>
@@ -11556,12 +12406,12 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="J51" s="24" t="s">
         <v>291</v>
@@ -11572,71 +12422,71 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="I54" s="24" t="s">
         <v>291</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="M54" s="24" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="R57" s="24" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="Q59" s="24" t="s">
         <v>291</v>
       </c>
       <c r="R59" s="24" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="R60" s="24" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="M63" s="24">
         <v>3</v>
@@ -11644,7 +12494,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="M64" s="24">
         <v>12</v>
@@ -11652,7 +12502,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="L65" s="42" t="s">
         <v>291</v>
@@ -11663,25 +12513,25 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="M66" s="24" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B69" s="24" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B70" s="24" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -11691,60 +12541,60 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C72" s="22" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C73" s="22" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="R73" s="24" t="s">
         <v>291</v>
       </c>
       <c r="S73" s="24" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C74" s="22" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="S74" s="24" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B77" s="22" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B78" s="22" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="G78" s="24" t="s">
         <v>291</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B79" s="22" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -11778,7 +12628,7 @@
         <v>1314</v>
       </c>
       <c r="L86" s="24" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -11804,7 +12654,7 @@
         <v>1327</v>
       </c>
       <c r="L90" s="24" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -11824,27 +12674,27 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B99" s="24" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B100" s="24" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -11854,81 +12704,81 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C102" s="22" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C103" s="22" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="N103" s="24" t="s">
         <v>291</v>
       </c>
       <c r="O103" s="24" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C104" s="22" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="O104" s="24" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B107" s="24" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="24" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B113" s="22" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="H113" s="24" t="s">
         <v>291</v>
       </c>
       <c r="I113" s="24" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="J113" s="24" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="AE117" s="42"/>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B118" s="22" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="L118" s="42" t="s">
         <v>381</v>
@@ -11936,7 +12786,7 @@
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B119" s="22" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="K119" s="24" t="s">
         <v>291</v>
@@ -11947,123 +12797,123 @@
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B120" s="22" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="L120" s="42" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="N120" s="24" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B123" s="24" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B128" s="22" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="J128" s="24" t="s">
         <v>291</v>
       </c>
       <c r="K128" s="24" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B129" s="22" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="K129" s="24" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B136" s="24" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B138" s="22" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="Q138" s="24" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B139" s="22" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="Q139" s="24" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B140" s="22" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="Q140" s="24" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B141" s="22" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="P141" s="24" t="s">
         <v>291</v>
       </c>
       <c r="Q141" s="24" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B142" s="22" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="Q142" s="24" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B143" s="22" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="Q143" s="24" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
   </sheetData>
@@ -12074,10 +12924,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE327160-21E7-4CA1-958C-4EB8851236A7}">
-  <dimension ref="A1:BA248"/>
+  <dimension ref="A1:AZ373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="AS242" sqref="AS242"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="AD382" sqref="AD382:AE382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12088,22 +12938,22 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12113,1200 +12963,1654 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="24" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="24" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="24" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="24" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="24" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="24" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="23" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="23" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="24" t="s">
+      <c r="J24" s="24" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>1957</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="23" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="K25" s="24" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="1" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="24" t="s">
+      <c r="N29" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
+        <v>1964</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="R30" s="24" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="s">
+        <v>1968</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>1970</v>
+      </c>
+      <c r="T34" s="24" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
+        <v>1969</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="T35" s="24" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="M45" s="24" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
+        <v>1977</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>1978</v>
+      </c>
+      <c r="S46" s="24" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="23" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="23" t="s">
-        <v>1957</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>1155</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>1960</v>
-      </c>
-      <c r="S24" s="24" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="23" t="s">
-        <v>1958</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C28" s="23" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C29" s="23" t="s">
-        <v>1965</v>
-      </c>
-      <c r="O29" s="24" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="27" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="27" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="27"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="27" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="27"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="27" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="27" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="27" t="s">
+        <v>1984</v>
+      </c>
+      <c r="Q56" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="P29" s="24" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="23" t="s">
-        <v>1967</v>
-      </c>
-      <c r="Q30" s="24" t="s">
+      <c r="R56" s="24" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="27" t="s">
+        <v>1985</v>
+      </c>
+      <c r="R57" s="24" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="27" t="s">
+        <v>1986</v>
+      </c>
+      <c r="R58" s="24" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="27" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="27" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="27" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="27" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="65" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B65" s="24" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="66" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B66" s="24" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="67" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B67" s="24" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B69" s="24" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="71" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B71" s="24" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="72" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B72" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="C73" s="23" t="s">
+        <v>1999</v>
+      </c>
+      <c r="L73" s="24" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="C74" s="23" t="s">
+        <v>2000</v>
+      </c>
+      <c r="K74" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="R30" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="S30" s="24" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="23" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="23" t="s">
-        <v>1971</v>
-      </c>
-      <c r="M34" s="24" t="s">
+      <c r="L74" s="24" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="75" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="C75" s="23" t="s">
+        <v>2058</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="77" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="C77" s="23" t="s">
+        <v>2009</v>
+      </c>
+      <c r="O77" s="24" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AG77" s="24" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AO77" s="23" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AZ77" s="23" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="78" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="C78" s="23" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N78" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="N34" s="24" t="s">
-        <v>1973</v>
-      </c>
-      <c r="U34" s="24" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="23" t="s">
-        <v>1972</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="U35" s="24" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C37" s="23" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="23" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="23" t="s">
-        <v>1976</v>
-      </c>
-      <c r="J39" s="24" t="s">
+      <c r="O78" s="24" t="s">
+        <v>2002</v>
+      </c>
+      <c r="X78" s="24" t="s">
+        <v>2004</v>
+      </c>
+      <c r="AG78" s="24" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AO78" s="23" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AY78" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="K39" s="24" t="s">
-        <v>1977</v>
-      </c>
-      <c r="Q39" s="24" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C40" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="23" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="23" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="23" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="24" t="s">
+    </row>
+    <row r="79" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="C79" s="23" t="s">
+        <v>2011</v>
+      </c>
+      <c r="O79" s="24" t="s">
+        <v>2003</v>
+      </c>
+      <c r="X79" s="24" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AF79" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="N45" s="24" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="23" t="s">
-        <v>1980</v>
-      </c>
-      <c r="N46" s="24" t="s">
-        <v>1981</v>
-      </c>
-      <c r="T46" s="24" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C49" s="27" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C50" s="27" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C51" s="27"/>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C52" s="27" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C53" s="27"/>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C54" s="27" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="27" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="27" t="s">
-        <v>1987</v>
-      </c>
-      <c r="R56" s="24" t="s">
+      <c r="AG79" s="24" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B81" s="24" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C83" s="23" t="s">
+        <v>2012</v>
+      </c>
+      <c r="I83" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="S56" s="24" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="27" t="s">
-        <v>1988</v>
-      </c>
-      <c r="S57" s="24" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="27" t="s">
-        <v>1989</v>
-      </c>
-      <c r="S58" s="24" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C60" s="27" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C61" s="27" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="24" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="65" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C65" s="24" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="66" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="67" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="J83" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="L83" s="24" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C84" s="23" t="s">
+        <v>2013</v>
+      </c>
+      <c r="J84" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="L84" s="24" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C86" s="23" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C87" s="23" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K87" s="24" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C88" s="23" t="s">
         <v>2021</v>
       </c>
-    </row>
-    <row r="69" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="71" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C71" s="24" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="72" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C72" s="24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D73" s="23" t="s">
+      <c r="J88" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="K88" s="24" t="s">
         <v>2002</v>
       </c>
-      <c r="M73" s="24" t="s">
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C89" s="23" t="s">
+        <v>2022</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>2026</v>
+      </c>
+      <c r="Q89" s="24" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C90" s="23" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C91" s="43"/>
+    </row>
+    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C92" s="23" t="s">
+        <v>2027</v>
+      </c>
+      <c r="U92" s="24" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C93" s="23" t="s">
+        <v>2028</v>
+      </c>
+      <c r="U93" s="24" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C94" s="23" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="K94" s="23" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C96" s="23" t="s">
+        <v>2033</v>
+      </c>
+      <c r="T96" s="24" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C97" s="23" t="s">
+        <v>2034</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="K97" s="23" t="s">
+        <v>2036</v>
+      </c>
+      <c r="T97" s="24" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C98" s="23" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="24" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C102" s="23" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C103" s="23" t="s">
+        <v>2039</v>
+      </c>
+      <c r="K103" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="L103" s="23" t="s">
+        <v>2041</v>
+      </c>
+      <c r="T103" s="24" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C104" s="23" t="s">
+        <v>2040</v>
+      </c>
+      <c r="T104" s="24" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C106" s="23" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C107" s="23" t="s">
+        <v>2046</v>
+      </c>
+      <c r="K107" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="L107" s="23" t="s">
+        <v>2025</v>
+      </c>
+      <c r="R107" s="24" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B109" s="24" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C111" s="23" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C112" s="23" t="s">
+        <v>2056</v>
+      </c>
+      <c r="L112" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C113" s="23" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="115" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B115" s="24" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="117" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C117" s="23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="O117" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="P117" s="23" t="s">
+        <v>2063</v>
+      </c>
+      <c r="AC117" s="24" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="118" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C118" s="23" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="123" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B123" s="24" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="125" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C125" s="23" t="s">
+        <v>2066</v>
+      </c>
+      <c r="O125" s="23" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="126" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C126" s="23" t="s">
+        <v>2067</v>
+      </c>
+      <c r="N126" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C127" s="23" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="131" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B131" s="24" t="s">
+        <v>2069</v>
+      </c>
+      <c r="L131" s="24" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="133" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C133" s="23" t="s">
+        <v>2070</v>
+      </c>
+      <c r="L133" s="23" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="134" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C134" s="23" t="s">
+        <v>2071</v>
+      </c>
+      <c r="K134" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="135" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C135" s="23" t="s">
+        <v>2072</v>
+      </c>
+      <c r="X135" s="24" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="136" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C136" s="23" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="141" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C141" s="23" t="s">
+        <v>2076</v>
+      </c>
+      <c r="K141" s="23" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="142" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C142" s="23" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J142" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="X142" s="24" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="143" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C143" s="23" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="144" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C144" s="23"/>
+    </row>
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C145" s="23"/>
+    </row>
+    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B150" s="24" t="s">
+        <v>2082</v>
+      </c>
+      <c r="H150" s="24" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C152" s="23" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C153" s="23" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C154" s="23" t="s">
+        <v>2085</v>
+      </c>
+      <c r="N154" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O154" s="23" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C155" s="23" t="s">
+        <v>2086</v>
+      </c>
+      <c r="O155" s="23" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C157" s="23" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C158" s="23" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C159" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="V159" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C160" s="23" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C161" s="23" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="164" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C164" s="23" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="165" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C165" s="23" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C166" s="23" t="s">
+        <v>2094</v>
+      </c>
+      <c r="O166" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C167" s="23" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C168" s="23" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C169" s="23" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C170" s="23" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C171" s="23" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C172" s="23" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B174" s="24" t="s">
+        <v>2098</v>
+      </c>
+      <c r="K174" s="24" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C176" s="23" t="s">
+        <v>2100</v>
+      </c>
+      <c r="L176" s="24" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="177" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C177" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="K177" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="L177" s="24" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="178" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C178" s="23" t="s">
+        <v>2101</v>
+      </c>
+      <c r="L178" s="24" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="180" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B180" s="24" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="182" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C182" s="23" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="183" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C183" s="23" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="184" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C184" s="23" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="185" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C185" s="23" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AB185" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="186" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C186" s="23" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="187" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C187" s="23" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="188" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C188" s="23" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="189" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C189" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="H189" s="24" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="190" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C190" s="23" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H190" s="24" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="191" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C191" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="H191" s="24" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="192" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C192" s="23" t="s">
+        <v>2109</v>
+      </c>
+      <c r="H192" s="24" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="193" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C193" s="23" t="s">
+        <v>2112</v>
+      </c>
+      <c r="H193" s="24" t="s">
+        <v>2118</v>
+      </c>
+      <c r="T193" s="23"/>
+    </row>
+    <row r="194" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C194" s="23" t="s">
+        <v>2113</v>
+      </c>
+      <c r="H194" s="24" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="195" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C195" s="23" t="s">
+        <v>2122</v>
+      </c>
+      <c r="H195" s="24" t="s">
+        <v>2124</v>
+      </c>
+      <c r="T195" s="23"/>
+    </row>
+    <row r="196" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C196" s="23" t="s">
+        <v>2123</v>
+      </c>
+      <c r="H196" s="24" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="198" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B198" s="24" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="200" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C200" s="23" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="201" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C201" s="23" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="202" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C202" s="23" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="203" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C203" s="23" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="204" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C204" s="23" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="205" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C205" s="23" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Y205" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="206" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C206" s="23" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="207" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C207" s="23" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="208" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C208" s="23" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="209" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C209" s="23" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="210" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C210" s="23" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="211" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C211" s="23" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="212" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C212" s="23" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="214" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C214" s="23" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="215" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C215" s="23" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="216" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C216" s="23" t="s">
+        <v>2140</v>
+      </c>
+      <c r="L216" s="24" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="217" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C217" s="23" t="s">
+        <v>2141</v>
+      </c>
+      <c r="L217" s="24" t="s">
+        <v>2144</v>
+      </c>
+      <c r="V217" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="218" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C218" s="23" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="219" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C219" s="23" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="229" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C229" s="23" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="230" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C230" s="23" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="231" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C231" s="23" t="s">
+        <v>2148</v>
+      </c>
+      <c r="W231" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="232" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C232" s="23" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="233" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C233" s="23" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="236" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B236" s="24" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="238" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C238" s="23" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="74" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D74" s="23" t="s">
-        <v>2003</v>
-      </c>
-      <c r="L74" s="24" t="s">
+    <row r="239" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C239" s="23" t="s">
+        <v>2151</v>
+      </c>
+      <c r="P239" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="M74" s="24" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="75" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D75" s="23" t="s">
-        <v>2061</v>
-      </c>
-      <c r="M75" s="23" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="77" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D77" s="23" t="s">
-        <v>2012</v>
-      </c>
-      <c r="P77" s="24" t="s">
-        <v>2019</v>
-      </c>
-      <c r="AH77" s="24" t="s">
-        <v>2020</v>
-      </c>
-      <c r="AP77" s="23" t="s">
-        <v>2054</v>
-      </c>
-      <c r="BA77" s="23" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="78" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D78" s="23" t="s">
-        <v>2013</v>
-      </c>
-      <c r="O78" s="24" t="s">
+    </row>
+    <row r="240" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C240" s="23" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C241" s="23" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B243" s="24" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C245" s="23" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C246" s="23" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C247" s="23" t="s">
+        <v>2158</v>
+      </c>
+      <c r="M247" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="P78" s="24" t="s">
-        <v>2005</v>
-      </c>
-      <c r="Y78" s="24" t="s">
-        <v>2007</v>
-      </c>
-      <c r="AH78" s="24" t="s">
-        <v>2009</v>
-      </c>
-      <c r="AP78" s="23" t="s">
-        <v>2055</v>
-      </c>
-      <c r="AZ78" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="79" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D79" s="23" t="s">
-        <v>2014</v>
-      </c>
-      <c r="P79" s="24" t="s">
-        <v>2006</v>
-      </c>
-      <c r="Y79" s="24" t="s">
-        <v>2008</v>
-      </c>
-      <c r="AG79" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH79" s="24" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C81" s="24" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D83" s="23" t="s">
-        <v>2015</v>
-      </c>
-      <c r="J83" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="K83" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="M83" s="24" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D84" s="23" t="s">
-        <v>2016</v>
-      </c>
-      <c r="K84" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="M84" s="24" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D86" s="23" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D87" s="23" t="s">
-        <v>2023</v>
-      </c>
-      <c r="L87" s="24" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D88" s="23" t="s">
-        <v>2024</v>
-      </c>
-      <c r="K88" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="L88" s="24" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D89" s="23" t="s">
-        <v>2025</v>
-      </c>
-      <c r="L89" s="24" t="s">
-        <v>2029</v>
-      </c>
-      <c r="R89" s="24" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D90" s="23" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="91" spans="3:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D91" s="44"/>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D92" s="23" t="s">
-        <v>2030</v>
-      </c>
-      <c r="V92" s="24" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D93" s="23" t="s">
-        <v>2031</v>
-      </c>
-      <c r="V93" s="24" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D94" s="23" t="s">
-        <v>2032</v>
-      </c>
-      <c r="K94" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="L94" s="23" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D96" s="23" t="s">
-        <v>2036</v>
-      </c>
-      <c r="U96" s="24" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D97" s="23" t="s">
-        <v>2037</v>
-      </c>
-      <c r="K97" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="L97" s="23" t="s">
-        <v>2039</v>
-      </c>
-      <c r="U97" s="24" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D98" s="23" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C100" s="24" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D102" s="23" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="103" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D103" s="23" t="s">
-        <v>2042</v>
-      </c>
-      <c r="L103" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="M103" s="23" t="s">
-        <v>2044</v>
-      </c>
-      <c r="U103" s="24" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="104" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D104" s="23" t="s">
-        <v>2043</v>
-      </c>
-      <c r="U104" s="24" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="106" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D106" s="23" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="107" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D107" s="23" t="s">
-        <v>2049</v>
-      </c>
-      <c r="L107" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="M107" s="23" t="s">
-        <v>2028</v>
-      </c>
-      <c r="S107" s="24" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="109" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C109" s="24" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="111" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D111" s="23" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="112" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D112" s="23" t="s">
-        <v>2059</v>
-      </c>
-      <c r="M112" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="N112" s="23" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="113" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D113" s="23" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="115" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C115" s="24" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="117" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D117" s="23" t="s">
-        <v>2064</v>
-      </c>
-      <c r="P117" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q117" s="23" t="s">
-        <v>2066</v>
-      </c>
-      <c r="AD117" s="24" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="118" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D118" s="23" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="123" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C123" s="24" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="125" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D125" s="23" t="s">
-        <v>2069</v>
-      </c>
-      <c r="P125" s="23" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="126" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D126" s="23" t="s">
-        <v>2070</v>
-      </c>
-      <c r="O126" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="127" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D127" s="23" t="s">
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C248" s="23" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B254" s="24" t="s">
+        <v>2171</v>
+      </c>
+      <c r="W254" s="24" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B255" s="24" t="s">
+        <v>2172</v>
+      </c>
+      <c r="W255" s="24" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B256" s="24" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="257" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B257" s="24" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="258" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B258" s="24" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="259" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B259" s="24" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="260" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B260" s="24" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="261" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B261" s="24" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="262" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B262" s="24" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="264" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B264" s="24" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="266" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B266" s="24" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="268" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B268" s="24" t="s">
+        <v>2182</v>
+      </c>
+      <c r="U268" s="24" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="269" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C269" s="24" t="s">
+        <v>2183</v>
+      </c>
+      <c r="U269" s="24" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="270" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C270" s="24" t="s">
+        <v>2184</v>
+      </c>
+      <c r="U270" s="24" t="s">
+        <v>2188</v>
+      </c>
+      <c r="AO270" s="24" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="271" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C271" s="24" t="s">
+        <v>2185</v>
+      </c>
+      <c r="U271" s="24" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="272" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="U272" s="24" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="274" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B274" s="24" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="275" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C275" s="24" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="276" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C276" s="24" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="277" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C277" s="24" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="279" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C279" s="24" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="280" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C280" s="24" t="s">
+        <v>2196</v>
+      </c>
+      <c r="Q280" s="24" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="281" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C281" s="24" t="s">
+        <v>2199</v>
+      </c>
+      <c r="Q281" s="24" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="283" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B283" s="24" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="284" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C284" s="24" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="285" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U285" s="24" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="286" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D286" s="23" t="s">
+        <v>2207</v>
+      </c>
+      <c r="M286" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="287" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D287" s="23" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="290" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C290" s="24" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="292" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D292" s="23" t="s">
+        <v>2212</v>
+      </c>
+      <c r="R292" s="24" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="293" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D293" s="23" t="s">
+        <v>2211</v>
+      </c>
+      <c r="J293" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="297" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C297" s="24" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="299" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D299" s="23" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="300" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D300" s="23" t="s">
+        <v>2215</v>
+      </c>
+      <c r="R300" s="24" t="s">
+        <v>2209</v>
+      </c>
+      <c r="AF300" s="24" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="301" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D301" s="23" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="302" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D302" s="23" t="s">
+        <v>2216</v>
+      </c>
+      <c r="G302" s="24" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="304" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C304" s="24" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="306" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D306" s="23" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="307" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D307" s="23" t="s">
+        <v>2214</v>
+      </c>
+      <c r="L307" s="23"/>
+    </row>
+    <row r="308" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D308" s="23" t="s">
+        <v>2219</v>
+      </c>
+      <c r="S308" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="309" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D309" s="23" t="s">
+        <v>2220</v>
+      </c>
+      <c r="J309" s="24" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="310" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D310" s="23" t="s">
+        <v>2221</v>
+      </c>
+      <c r="J310" s="24" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="312" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C312" s="24" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="314" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D314" s="23" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="315" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D315" s="23" t="s">
+        <v>2227</v>
+      </c>
+      <c r="AB315" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="322" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D322" s="23" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="323" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D323" s="23" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="324" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D324" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB324" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="325" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D325" s="23" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="131" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C131" s="24" t="s">
-        <v>2072</v>
-      </c>
-      <c r="M131" s="24" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="133" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D133" s="23" t="s">
-        <v>2073</v>
-      </c>
-      <c r="M133" s="23" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="134" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D134" s="23" t="s">
-        <v>2074</v>
-      </c>
-      <c r="L134" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="135" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D135" s="23" t="s">
-        <v>2075</v>
-      </c>
-      <c r="Y135" s="24" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="136" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D136" s="23" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="141" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D141" s="23" t="s">
-        <v>2079</v>
-      </c>
-      <c r="L141" s="23" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="142" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D142" s="23" t="s">
-        <v>2080</v>
-      </c>
-      <c r="K142" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y142" s="24" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="143" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D143" s="23" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="144" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D144" s="23"/>
-    </row>
-    <row r="145" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D145" s="23"/>
-    </row>
-    <row r="150" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C150" s="24" t="s">
-        <v>2085</v>
-      </c>
-      <c r="I150" s="24" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="152" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D152" s="23" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="153" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D153" s="23" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="154" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D154" s="23" t="s">
-        <v>2088</v>
-      </c>
-      <c r="O154" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="P154" s="23" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="155" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D155" s="23" t="s">
-        <v>2089</v>
-      </c>
-      <c r="P155" s="23" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="157" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D157" s="23" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="158" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D158" s="23" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="159" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D159" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="W159" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="160" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D160" s="23" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="161" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D161" s="23" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="164" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D164" s="23" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="165" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D165" s="23" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="166" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D166" s="23" t="s">
-        <v>2097</v>
-      </c>
-      <c r="P166" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D167" s="23" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D168" s="23" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="169" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D169" s="23" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="170" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D170" s="23" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D171" s="23" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="172" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D172" s="23" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C174" s="24" t="s">
-        <v>2101</v>
-      </c>
-      <c r="L174" s="24" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="176" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D176" s="23" t="s">
-        <v>2103</v>
-      </c>
-      <c r="M176" s="24" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="177" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D177" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="L177" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="M177" s="24" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="178" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D178" s="23" t="s">
-        <v>2104</v>
-      </c>
-      <c r="M178" s="24" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="180" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C180" s="24" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="182" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D182" s="23" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="183" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D183" s="23" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="184" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D184" s="23" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="185" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D185" s="23" t="s">
-        <v>2113</v>
-      </c>
-      <c r="AC185" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="186" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D186" s="23" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="187" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D187" s="23" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="188" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D188" s="23" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="189" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D189" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="I189" s="24" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="190" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D190" s="23" t="s">
-        <v>2111</v>
-      </c>
-      <c r="I190" s="24" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="191" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D191" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="I191" s="24" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="192" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D192" s="23" t="s">
-        <v>2112</v>
-      </c>
-      <c r="I192" s="24" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="193" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D193" s="23" t="s">
-        <v>2115</v>
-      </c>
-      <c r="I193" s="24" t="s">
-        <v>2121</v>
-      </c>
-      <c r="U193" s="23"/>
-    </row>
-    <row r="194" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D194" s="23" t="s">
-        <v>2116</v>
-      </c>
-      <c r="I194" s="24" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="195" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D195" s="23" t="s">
-        <v>2125</v>
-      </c>
-      <c r="I195" s="24" t="s">
-        <v>2127</v>
-      </c>
-      <c r="U195" s="23"/>
-    </row>
-    <row r="196" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D196" s="23" t="s">
-        <v>2126</v>
-      </c>
-      <c r="I196" s="24" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="198" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C198" s="24" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="200" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D200" s="23" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="201" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D201" s="23" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="202" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D202" s="23" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="203" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D203" s="23" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="204" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D204" s="23" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="205" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D205" s="23" t="s">
-        <v>1078</v>
-      </c>
-      <c r="Z205" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="206" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D206" s="23" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="207" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D207" s="23" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="208" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D208" s="23" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="209" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D209" s="23" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="210" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D210" s="23" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="211" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D211" s="23" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="212" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D212" s="23" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="214" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D214" s="23" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="215" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D215" s="23" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="216" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D216" s="23" t="s">
-        <v>2143</v>
-      </c>
-      <c r="M216" s="24" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="217" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D217" s="23" t="s">
-        <v>2144</v>
-      </c>
-      <c r="M217" s="24" t="s">
-        <v>2147</v>
-      </c>
-      <c r="W217" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="218" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D218" s="23" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="219" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D219" s="23" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="229" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D229" s="23" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="230" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D230" s="23" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="231" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D231" s="23" t="s">
-        <v>2151</v>
-      </c>
-      <c r="X231" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="232" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D232" s="23" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="233" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D233" s="23" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="236" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C236" s="24" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="238" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D238" s="23" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="239" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D239" s="23" t="s">
-        <v>2154</v>
-      </c>
-      <c r="Q239" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="240" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D240" s="23" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="241" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D241" s="23" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="243" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C243" s="24" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="245" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D245" s="23" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="246" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D246" s="23" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="247" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D247" s="23" t="s">
-        <v>2161</v>
-      </c>
-      <c r="N247" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="248" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D248" s="23" t="s">
-        <v>2162</v>
+    <row r="326" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D326" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="331" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D331" s="23" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="332" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D332" s="23" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AB332" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="333" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D333" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="336" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C336" s="24" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="338" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="D338" s="23" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="339" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="D339" s="23" t="s">
+        <v>2233</v>
+      </c>
+      <c r="AF339" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="340" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="D340" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="343" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="D343" s="23" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="344" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="D344" s="23" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AH344" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="345" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="D345" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="349" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C349" s="24" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="351" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="D351" s="23" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E351" s="1"/>
+      <c r="W351" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="352" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="D352" s="23" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E352" s="1"/>
+    </row>
+    <row r="356" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D356" s="23" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="357" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D357" s="23" t="s">
+        <v>2238</v>
+      </c>
+      <c r="AE357" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="363" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C363" s="24" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="365" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D365" s="23" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="366" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D366" s="23" t="s">
+        <v>2240</v>
+      </c>
+      <c r="AG366" s="24" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="367" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D367" s="23" t="s">
+        <v>2218</v>
+      </c>
+      <c r="J367" s="24" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="368" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D368" s="23" t="s">
+        <v>2241</v>
+      </c>
+      <c r="J368" s="24" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="371" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D371" s="23" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="372" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D372" s="23" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AB372" s="24" t="s">
+        <v>2209</v>
+      </c>
+      <c r="AC372" s="23" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="373" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D373" s="23" t="s">
+        <v>2249</v>
       </c>
     </row>
   </sheetData>
@@ -20019,10 +21323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BFB5C9-DA4D-4210-8B9A-D77850984240}">
-  <dimension ref="A1:AX144"/>
+  <dimension ref="A1:BC144"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AT40" sqref="AT40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20030,25 +21334,34 @@
     <col min="1" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AS2" s="23" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AS3" s="23" t="s">
+        <v>2161</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>152</v>
       </c>
@@ -20058,8 +21371,17 @@
       <c r="AI4" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AS4" s="23" t="s">
+        <v>2162</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>153</v>
       </c>
@@ -20072,8 +21394,14 @@
       <c r="AI5" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AS5" s="23" t="s">
+        <v>2163</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>154</v>
       </c>
@@ -20083,13 +21411,19 @@
       <c r="AI6" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AS6" s="23" t="s">
+        <v>2164</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>156</v>
       </c>
@@ -20097,17 +21431,17 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>159</v>
       </c>
@@ -20115,7 +21449,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>160</v>
       </c>
@@ -20123,7 +21457,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>161</v>
       </c>
@@ -20134,7 +21468,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>162</v>
       </c>
@@ -20145,7 +21479,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>163</v>
       </c>
@@ -20934,6 +22268,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20941,8 +22276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D096D51-ADEA-4209-B8DC-5D72E85FA078}">
   <dimension ref="A1:BE113"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24827,7 +26162,7 @@
         <v>1314</v>
       </c>
       <c r="BA33" s="24" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="BT33" s="23" t="s">
         <v>1315</v>
@@ -24877,7 +26212,7 @@
         <v>1327</v>
       </c>
       <c r="BA37" s="24" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="BT37" s="23" t="s">
         <v>1328</v>

--- a/공부메모.xlsx
+++ b/공부메모.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B6AED6-6AB8-4B74-9E85-F1A8987EA06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF37E5-A8C5-4E56-9D9D-F33D7594A394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="30" windowWidth="19155" windowHeight="19170" firstSheet="7" activeTab="13" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="2251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="2326">
   <si>
     <t>True</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7896,6 +7896,306 @@
   </si>
   <si>
     <t>RangeIndex(start=0, stop=3, step=1)</t>
+  </si>
+  <si>
+    <t>집단화, 통계함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>melt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임을 집단별로 나누어 주는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 집단별로 통계값을 구할 때 유용하게 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>size 누락값을 포함한 데이터 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count 누락값을 제외한 데이터 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>std 표준편차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min 최소값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max 최대값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum 전체합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var 분산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 요약 통계량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first 첫번째 행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last 마지막 행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupby 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot 간단한 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nunique 특정한 것을 세다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈와 데이터프레임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열에 접근하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[열]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[['열1 이름','열2 이름']]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행,열에 접근하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc: 이름으로 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iloc: 순서로 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc[0] : 행이름이 0인 것에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iloc[0] : 0번째 행에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc[[0,10,100,1000]] : 이름이 0, 10 100, 1000인 행에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iloc[[0,10,100,1000]] : 0,10,100,1000번째 행에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc[[0,10,100],["A","B"]] : 이름이 0,10,100인 행에 접근, 이름이 A,B인 열에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iloc[[0,10,100],[0,10]] : 0,10,100번째 행에 접근, 0,10번째 열에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 행에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[조건]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[(조건1)&amp;(조건2)] # 교집합, 조건1,2 모두 만족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[(조건1)|(조건2)] # 합집합, 조건1 또는 2에 만족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임의 머리 부분 추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임이 너무 많을 경우 전부 다 출력이 되면 너무 렉걸리니 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.head() # 데이터프레임이 몇 개가 되던 젤 앞부분(첫행인듯) 보여줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.head(n=10) # 앞부분 10개까지 보여줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.tail() # 맨 뒤부분 보여줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.tail(n=10) # 맨 뒤 10개 보여줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임 모양 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임 열 이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.columns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임의 열 자료형 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.dtypes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 문자열은 object, 정수는 int, 싨는 float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임의 정보 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.info()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># type, 데이터용량 크기 등 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 통계함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.mean() 평균값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.std() 표준편차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.median() 중앙값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.max() 최대값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.min() 최소값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 중복데이터 삭제하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.drop_duplicates()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.drop_duplicates()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 특정 값 바꾸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.replace(값, 변경값)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 랜덤 샘플 추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.sample(n) 랜덤으로 n개의 샘플 추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.sort_values() # 오름차순 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.sort_values(ascending=False) # 내림차순 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.sort_index() # 행 번호 오름차순 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.sort_index(ascending=False) # 행 번호 내림차순 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 프레임화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.to_frame()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 데이터 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.to_datetime() # 문자열로 된 날짜 데이터를 시간 데이터로 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.describe() 요약통계량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10315,6 +10615,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="H73:N73"/>
+    <mergeCell ref="H74:N74"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="C73:F74"/>
+    <mergeCell ref="C71:F72"/>
+    <mergeCell ref="H71:N71"/>
+    <mergeCell ref="H72:N72"/>
+    <mergeCell ref="AE50:AH50"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="AI48:AL48"/>
+    <mergeCell ref="AI49:AL49"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="W48:Z48"/>
+    <mergeCell ref="W49:Z49"/>
+    <mergeCell ref="W50:Z50"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA48:AD48"/>
+    <mergeCell ref="AA49:AD49"/>
+    <mergeCell ref="AA50:AD50"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O51:R51"/>
     <mergeCell ref="S51:V51"/>
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="K49:N49"/>
@@ -10331,39 +10664,6 @@
     <mergeCell ref="G49:J49"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="W50:Z50"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA48:AD48"/>
-    <mergeCell ref="AA49:AD49"/>
-    <mergeCell ref="AA50:AD50"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="C73:F74"/>
-    <mergeCell ref="C71:F72"/>
-    <mergeCell ref="H71:N71"/>
-    <mergeCell ref="H72:N72"/>
-    <mergeCell ref="AE50:AH50"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="AI48:AL48"/>
-    <mergeCell ref="AI49:AL49"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="W48:Z48"/>
-    <mergeCell ref="W49:Z49"/>
-    <mergeCell ref="H73:N73"/>
-    <mergeCell ref="H74:N74"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12924,10 +13224,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE327160-21E7-4CA1-958C-4EB8851236A7}">
-  <dimension ref="A1:AZ373"/>
+  <dimension ref="A1:AZ481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="AD382" sqref="AD382:AE382"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="BF441" sqref="BF441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14592,12 +14892,12 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="371" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D371" s="23" t="s">
         <v>2247</v>
       </c>
     </row>
-    <row r="372" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D372" s="23" t="s">
         <v>2248</v>
       </c>
@@ -14608,9 +14908,381 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="373" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D373" s="23" t="s">
         <v>2249</v>
+      </c>
+    </row>
+    <row r="375" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B375" s="24" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="377" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C377" s="24" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="378" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D378" s="24" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="379" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D379" s="24" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="381" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D381" s="24" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="382" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E382" s="24" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="383" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E383" s="24" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="384" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E384" s="24" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="385" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E385" s="24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="AM385" s="24" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="386" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E386" s="24" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="387" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E387" s="24" t="s">
+        <v>2261</v>
+      </c>
+      <c r="AM387" s="24" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="388" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E388" s="24" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="389" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E389" s="24" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="390" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E390" s="24" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="391" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E391" s="24" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="392" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E392" s="24" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="394" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E394" s="24" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="396" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E396" s="24" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="398" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B398" s="24" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="400" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C400" s="24" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="401" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D401" s="24" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="402" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D402" s="24" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="404" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C404" s="24" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="405" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D405" s="24" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="406" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D406" s="24" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="407" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E407" s="24" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="408" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E408" s="24" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="410" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E410" s="24" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="411" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E411" s="24" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="413" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D413" s="24" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="414" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D414" s="24" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="416" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C416" s="24" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="418" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D418" s="24" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="419" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D419" s="24" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="420" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D420" s="24" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="422" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C422" s="24" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="423" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D423" s="24" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="425" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D425" s="24" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="426" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D426" s="24" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="427" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D427" s="24" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="428" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D428" s="24" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="430" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C430" s="24" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="432" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D432" s="24" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="434" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C434" s="24" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="436" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D436" s="24" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="438" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C438" s="24" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="440" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D440" s="24" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L440" s="24" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="442" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C442" s="24" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="444" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D444" s="24" t="s">
+        <v>2301</v>
+      </c>
+      <c r="L444" s="24" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="446" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C446" s="24" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="448" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D448" s="24" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="449" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D449" s="24" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="450" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D450" s="24" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="451" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D451" s="24" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="452" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D452" s="24" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="453" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D453" s="24" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="455" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C455" s="24" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="457" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D457" s="24" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="458" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D458" s="24" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="460" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C460" s="24" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="462" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D462" s="24" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="464" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C464" s="24" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="466" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D466" s="24" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="468" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C468" s="24" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="470" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D470" s="24" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="471" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D471" s="24" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="472" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D472" s="24" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="473" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D473" s="24" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="475" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C475" s="24" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="477" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D477" s="24" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="479" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C479" s="24" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D481" s="24" t="s">
+        <v>2324</v>
       </c>
     </row>
   </sheetData>
@@ -27596,8 +28268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206C6D58-6B52-42A7-B320-B265E10D1206}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/공부메모.xlsx
+++ b/공부메모.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF37E5-A8C5-4E56-9D9D-F33D7594A394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63442410-00BF-43FB-92B2-8FA30C767700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="30" windowWidth="19155" windowHeight="19170" firstSheet="7" activeTab="13" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
+    <workbookView xWindow="19200" yWindow="30" windowWidth="19155" windowHeight="19170" firstSheet="7" activeTab="14" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="참고 및 용어정리" sheetId="15" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="예외처리" sheetId="25" r:id="rId12"/>
     <sheet name="내장함수" sheetId="27" r:id="rId13"/>
     <sheet name="라이브러리" sheetId="28" r:id="rId14"/>
+    <sheet name="Data" sheetId="29" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="2326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="2386">
   <si>
     <t>True</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -8197,12 +8198,245 @@
     <t>시리즈.describe() 요약통계량</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>매개변수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encoding : 문자표현방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sep : 데이터를 읽어올 때 구분자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀파일불러오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_excel(파일이름.xlsx, sheet_name=시트이름)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet1에 데이터가 저장되어 있다면 sheet_name을 안정해줘도됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet1의 이름이 다르거나 다른 sheet에 데이터가 있을경우 sheet_name 적어줘야함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀 병합이 되어있다면 에러가 날 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickle 파일 불러오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_pickle(파일이름.pickle)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV, TSV, Excel : 눈으로 보고 싶을 때 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도가 느림, 용량이 큼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickle : 속도가 빠름. 많은 데이터도 낮은 용량으로 저장가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터가 이해하고싶은 내용으로 저장하기에 사람이 알아 볼 수는 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV파일로 저장하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_csv(파일이름.csv)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index=True/False : 인덱스 유무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행번호를 보이게할지 안보이게 할지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSV파일로 저장하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.to_csv(파일이름.csv)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSV 파일의 경우 sep='\t'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.to_csv(파일이름.tsv, sep='\t')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 파일로 저장하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.to_excel(파일이름.xlsx)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickle로 저장하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.to_pickle(파일이름.pickle)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니코드(utf-8), cp949, euc-kr 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 저장하고 불러오는 방법, Pandas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 시각화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균, 표준편차 등 수치만으로 봤을 때 완전 똑같은 4개의 데이터 집단이 있다고 4개의 데이터 집단은 모두 같은 데이터를 가진다고 볼 수는 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시) [100,0], [50,50]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib : 그래프, 커스터마이징 유용함, 디자인 감각 있으면 좋음, 좀 어려움, 그래프들을 겹쳐서 그리기 좋음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas : 가시화 함수 들어있음(plot()), 간단한 그림을 그릴 때 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seaborn : 데이터 분석 연습용, 연습용 데이터와 가시화 함수 제공, 쉽고 자동으로 그려주는게 있음, 커스터마이징이 어려움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import seaborn as sns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표적인 라이브러리(몇만개씩 있다고 함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림을 그리기 위한 도화지 준비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=plt.figure()</t>
+  </si>
+  <si>
+    <t>a1=A.add_subplot(2,2,1)</t>
+  </si>
+  <si>
+    <t>a2=A.add_subplot(2,2,2)</t>
+  </si>
+  <si>
+    <t>a3=A.add_subplot(2,2,3)</t>
+  </si>
+  <si>
+    <t>a4=A.add_subplot(2,2,4)</t>
+  </si>
+  <si>
+    <t>&lt;Figure size 432x288 with 0 Axes&gt;</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/lib/python3.7/dist-packages/ipykernel_launcher.py:1: MatplotlibDeprecationWarning: Adding an axes using the same arguments as a previous axes currently reuses the earlier instance. In a future version, a new instance will always be created and returned. Meanwhile, this warning can be suppressed, and the future behavior ensured, by passing a unique label to each axes instance. """Entry point for launching an IPython kernel</t>
+  </si>
+  <si>
+    <t>a1.그림함수()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2.그림함수()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3.그림함수()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4.그림함수()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림함수 넣기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.set_title(제목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 제목 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.tight_layout()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 개별 이름 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 겹친부분 안겹치게 해줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.suptitle(제목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib 활용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8280,6 +8514,12 @@
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8399,7 +8639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8533,6 +8773,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9613,6 +9862,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142292</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>94868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B57E5F7-C4FE-324F-F1D7-CBB8FEDBF220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="11944350"/>
+          <a:ext cx="4666667" cy="3057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -10615,11 +10913,34 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="H73:N73"/>
-    <mergeCell ref="H74:N74"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="AE48:AH48"/>
+    <mergeCell ref="AE49:AH49"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="W50:Z50"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA48:AD48"/>
+    <mergeCell ref="AA49:AD49"/>
+    <mergeCell ref="AA50:AD50"/>
+    <mergeCell ref="AA51:AD51"/>
     <mergeCell ref="AM48:AP48"/>
     <mergeCell ref="AM49:AP49"/>
     <mergeCell ref="AM50:AP50"/>
@@ -10636,34 +10957,11 @@
     <mergeCell ref="AI51:AL51"/>
     <mergeCell ref="W48:Z48"/>
     <mergeCell ref="W49:Z49"/>
-    <mergeCell ref="W50:Z50"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA48:AD48"/>
-    <mergeCell ref="AA49:AD49"/>
-    <mergeCell ref="AA50:AD50"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="AE48:AH48"/>
-    <mergeCell ref="AE49:AH49"/>
-    <mergeCell ref="S48:V48"/>
-    <mergeCell ref="S49:V49"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="H73:N73"/>
+    <mergeCell ref="H74:N74"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13226,8 +13524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE327160-21E7-4CA1-958C-4EB8851236A7}">
   <dimension ref="A1:AZ481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="BF441" sqref="BF441"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="AK450" sqref="AK450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15290,6 +15588,383 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78969601-CFDF-4FEB-ADE1-B8CB4AE1E69F}">
+  <dimension ref="A1:AJ94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="AU70" sqref="AU70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z4" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>2327</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>2329</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C57" s="23" t="s">
+        <v>2366</v>
+      </c>
+      <c r="P57" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q57" s="47" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C60" s="23" t="s">
+        <v>2367</v>
+      </c>
+      <c r="L60" t="s">
+        <v>291</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C62" s="23" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C63" s="23" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C64" s="23" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C66" s="23" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D66" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66" t="s">
+        <v>291</v>
+      </c>
+      <c r="F66" t="s">
+        <v>291</v>
+      </c>
+      <c r="G66" t="s">
+        <v>291</v>
+      </c>
+      <c r="H66" t="s">
+        <v>291</v>
+      </c>
+      <c r="I66" t="s">
+        <v>291</v>
+      </c>
+      <c r="J66" t="s">
+        <v>291</v>
+      </c>
+      <c r="K66" t="s">
+        <v>291</v>
+      </c>
+      <c r="L66" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="82" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I82" t="s">
+        <v>291</v>
+      </c>
+      <c r="J82" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="83" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="84" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="86" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="87" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>2382</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="89" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="91" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="92" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="94" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/공부메모.xlsx
+++ b/공부메모.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63442410-00BF-43FB-92B2-8FA30C767700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370C2B96-7941-487C-A9D1-E2F8316B6C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="30" windowWidth="19155" windowHeight="19170" firstSheet="7" activeTab="14" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
+    <workbookView xWindow="19200" yWindow="30" windowWidth="19155" windowHeight="19170" firstSheet="11" activeTab="16" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="참고 및 용어정리" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <sheet name="예외처리" sheetId="25" r:id="rId12"/>
     <sheet name="내장함수" sheetId="27" r:id="rId13"/>
     <sheet name="라이브러리" sheetId="28" r:id="rId14"/>
-    <sheet name="Data" sheetId="29" r:id="rId15"/>
+    <sheet name="Data관리 및 시각화" sheetId="29" r:id="rId15"/>
+    <sheet name="데이터시각화 lib" sheetId="30" r:id="rId16"/>
+    <sheet name="데이터분석" sheetId="31" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="2386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="2545">
   <si>
     <t>True</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7507,928 +7509,1540 @@
     <t>c=np.sort(a,axis=1)</t>
   </si>
   <si>
+    <t>print("컬럼(열)방향으로 정렬:\n",c)</t>
+  </si>
+  <si>
+    <t># axis=1 은 열방향을 뜻함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># axis=0 은 행방향을 뜻함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=np.array([[20,5,100],[2,50,600],[1,30,200]])</t>
+  </si>
+  <si>
+    <t>b=np.argsort(a)</t>
+  </si>
+  <si>
+    <t>c=np.argsort(a)[::-1]</t>
+  </si>
+  <si>
+    <t>print("행렬 오름차순 정렬 시 원본 행렬의 인덱스:",b)</t>
+  </si>
+  <si>
+    <t>print("행렬 내림차순 정렬 시 원본 행렬의 인덱스:",c)</t>
+  </si>
+  <si>
+    <t>b=np.array([[7,8],[9,10],[11,12]])</t>
+  </si>
+  <si>
+    <t>c=np.dot(a,b)</t>
+  </si>
+  <si>
+    <t>print("행렬 내적 결과:\n",c)</t>
+  </si>
+  <si>
+    <t>행렬 내적 : np.dot   행렬끼리의 곱셉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전치행렬 : np.transpose      행과 열 바꾸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=np.array([[1,2],[3,4]])</t>
+  </si>
+  <si>
+    <t>b=np.transpose(a)</t>
+  </si>
+  <si>
+    <t>print("원본 행렬:\n",a)</t>
+  </si>
+  <si>
+    <t>print("전치 행렬:\n",b)</t>
+  </si>
+  <si>
+    <t>print(bool(None))</t>
+  </si>
+  <si>
+    <t>print(type(None))</t>
+  </si>
+  <si>
+    <t>print(type(False))</t>
+  </si>
+  <si>
+    <t>if False == 0:</t>
+  </si>
+  <si>
+    <t>    print("False==0이다")</t>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;class 'NoneType'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;class 'bool'&gt;</t>
+  </si>
+  <si>
+    <t>False==0이다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다스 Pandas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석을 할 떄 가장 많이 쓰이는 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 형태의 데이터를 다루는 기능 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀,CSV 등 다양한 데이터 형식 지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결측치 처리기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형태 바꾸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 삭제 및 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹화, 정렬, 결합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시계열 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 및 날짜/시간 지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 가시화: 많은 그래프 처리 라이브러리와의 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀이랑 연동됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형태 CSV는 데이터를 콤마(,)로 구분한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다스의 read_csv() 함수를 사용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C,D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0,b0,c0,d0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1,b1,c1,d1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2,b2,c2,d2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3,b3,c3,d3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 탭(Tab)으로 구분한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다스에는 TSV파일을 읽어오는 함수는 따로 제공하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 판다스의 read_csv()함수를 사용하여 TSV파일을 읽어올 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_csv("파일이름.csv")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_csv("파일이름.csv", sep=",")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 기본값은 sep="," 이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># TSV를 읽기위해선 sep="\t"로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_csv("파일이름.csv", sep="\t")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r: 읽기모드, 파일을 읽기만 할 때 사용, read, rt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w: 쓰기모드, 파일에 내용을 쓸 때 사용, write, wt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a: 추가모드, 파일의 마지막에 새로운 내용을 추가시킬 때 사용, attach, at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열: 시리즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표: 데이터 프레임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.Series() : 시리즈 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딕셔너리로 시리즈 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A={"a":1,"b":2,"c":3}</t>
+  </si>
+  <si>
+    <t>pd.Series(A)</t>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트로 시리즈 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.Series(B)</t>
+  </si>
+  <si>
+    <t>B=["a","b","c"]</t>
+  </si>
+  <si>
+    <t># 행이 0부터 부여됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C=pd.Series(B,index=["가","나","다"])</t>
+  </si>
+  <si>
+    <t>C=pd.Series(B,index=["가","나","다"])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type(C)</t>
+  </si>
+  <si>
+    <t># 시리즈 자료형 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(B.index)</t>
+  </si>
+  <si>
+    <t>C.index</t>
+  </si>
+  <si>
+    <t>print(C.index)</t>
+  </si>
+  <si>
+    <t>print(C.values)</t>
+  </si>
+  <si>
+    <t># 시리즈 행 이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 자료형 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 행 및 값 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딕셔너리로 데이터프레임 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A={"한글":['가','나','다'],"영어":['a','b','c'],"숫지":[1,2,3]}</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(A)</t>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A)</t>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A,index=['1행','2행','3행'])</t>
+  </si>
+  <si>
+    <t># index=[] 로 행 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 행이 a,b,c, 열번호는 없는 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A={"한글":['가','나','다'],"영어":['a','b','c'],"숫자":[1,2,3]}</t>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A,index=['1행','2행','3행'],columns=['영어','숫자','한글'])</t>
+  </si>
+  <si>
+    <t>열 순서 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A,index=['1행','2행','3행'],columns=['영어','숫자','1st','2nd'])</t>
+  </si>
+  <si>
+    <t>리스트로 데이터 프레임 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=[[1,"1st","일"],[2,'2nd',"이"],[3,'3rd','삼']]</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(A,index=['1행','2행','3행'],columns=['숫자','순서','한글'])</t>
+  </si>
+  <si>
+    <t>데이터 프레임 열 이름 확인 : 데이터프레임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A,index=['1행','2행','3행'],columns=['숫자','순서','한글'])</t>
+  </si>
+  <si>
+    <t>print(B.columns)</t>
+  </si>
+  <si>
+    <t># 행이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 열이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=["a","b","c"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 시리즈 값 확인, 행렬로 나옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A={"한글":['가','나','다'],"영어":['a','b','c'],"숫자":[1,2,3]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=pd.DataFrame(A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(B.index)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeIndex(start=0, stop=3, step=1)</t>
+  </si>
+  <si>
+    <t>집단화, 통계함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>melt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임을 집단별로 나누어 주는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 집단별로 통계값을 구할 때 유용하게 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>size 누락값을 포함한 데이터 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count 누락값을 제외한 데이터 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>std 표준편차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min 최소값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max 최대값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum 전체합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var 분산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 요약 통계량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first 첫번째 행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last 마지막 행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupby 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot 간단한 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nunique 특정한 것을 세다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈와 데이터프레임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열에 접근하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[열]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[['열1 이름','열2 이름']]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행,열에 접근하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc: 이름으로 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iloc: 순서로 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc[0] : 행이름이 0인 것에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iloc[0] : 0번째 행에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc[[0,10,100,1000]] : 이름이 0, 10 100, 1000인 행에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iloc[[0,10,100,1000]] : 0,10,100,1000번째 행에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc[[0,10,100],["A","B"]] : 이름이 0,10,100인 행에 접근, 이름이 A,B인 열에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iloc[[0,10,100],[0,10]] : 0,10,100번째 행에 접근, 0,10번째 열에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 행에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[조건]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[(조건1)&amp;(조건2)] # 교집합, 조건1,2 모두 만족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[(조건1)|(조건2)] # 합집합, 조건1 또는 2에 만족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임의 머리 부분 추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임이 너무 많을 경우 전부 다 출력이 되면 너무 렉걸리니 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.head() # 데이터프레임이 몇 개가 되던 젤 앞부분(첫행인듯) 보여줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.head(n=10) # 앞부분 10개까지 보여줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.tail() # 맨 뒤부분 보여줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.tail(n=10) # 맨 뒤 10개 보여줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임 모양 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임 열 이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.columns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임의 열 자료형 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.dtypes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 문자열은 object, 정수는 int, 싨는 float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임의 정보 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.info()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># type, 데이터용량 크기 등 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 통계함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.mean() 평균값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.std() 표준편차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.median() 중앙값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.max() 최대값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.min() 최소값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 중복데이터 삭제하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.drop_duplicates()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.drop_duplicates()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 특정 값 바꾸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.replace(값, 변경값)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 랜덤 샘플 추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.sample(n) 랜덤으로 n개의 샘플 추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.sort_values() # 오름차순 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.sort_values(ascending=False) # 내림차순 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.sort_index() # 행 번호 오름차순 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.sort_index(ascending=False) # 행 번호 내림차순 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈 프레임화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.to_frame()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 데이터 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.to_datetime() # 문자열로 된 날짜 데이터를 시간 데이터로 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈.describe() 요약통계량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개변수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encoding : 문자표현방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sep : 데이터를 읽어올 때 구분자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀파일불러오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_excel(파일이름.xlsx, sheet_name=시트이름)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet1에 데이터가 저장되어 있다면 sheet_name을 안정해줘도됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet1의 이름이 다르거나 다른 sheet에 데이터가 있을경우 sheet_name 적어줘야함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀 병합이 되어있다면 에러가 날 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickle 파일 불러오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_pickle(파일이름.pickle)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV, TSV, Excel : 눈으로 보고 싶을 때 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도가 느림, 용량이 큼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickle : 속도가 빠름. 많은 데이터도 낮은 용량으로 저장가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터가 이해하고싶은 내용으로 저장하기에 사람이 알아 볼 수는 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV파일로 저장하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_csv(파일이름.csv)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index=True/False : 인덱스 유무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행번호를 보이게할지 안보이게 할지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSV파일로 저장하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.to_csv(파일이름.csv)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSV 파일의 경우 sep='\t'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.to_csv(파일이름.tsv, sep='\t')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 파일로 저장하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.to_excel(파일이름.xlsx)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickle로 저장하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.to_pickle(파일이름.pickle)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니코드(utf-8), cp949, euc-kr 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 저장하고 불러오는 방법, Pandas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 시각화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균, 표준편차 등 수치만으로 봤을 때 완전 똑같은 4개의 데이터 집단이 있다고 4개의 데이터 집단은 모두 같은 데이터를 가진다고 볼 수는 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시) [100,0], [50,50]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib : 그래프, 커스터마이징 유용함, 디자인 감각 있으면 좋음, 좀 어려움, 그래프들을 겹쳐서 그리기 좋음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas : 가시화 함수 들어있음(plot()), 간단한 그림을 그릴 때 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seaborn : 데이터 분석 연습용, 연습용 데이터와 가시화 함수 제공, 쉽고 자동으로 그려주는게 있음, 커스터마이징이 어려움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import seaborn as sns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림을 그리기 위한 도화지 준비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=plt.figure()</t>
+  </si>
+  <si>
+    <t>a1=A.add_subplot(2,2,1)</t>
+  </si>
+  <si>
+    <t>a2=A.add_subplot(2,2,2)</t>
+  </si>
+  <si>
+    <t>a3=A.add_subplot(2,2,3)</t>
+  </si>
+  <si>
+    <t>a4=A.add_subplot(2,2,4)</t>
+  </si>
+  <si>
+    <t>&lt;Figure size 432x288 with 0 Axes&gt;</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/lib/python3.7/dist-packages/ipykernel_launcher.py:1: MatplotlibDeprecationWarning: Adding an axes using the same arguments as a previous axes currently reuses the earlier instance. In a future version, a new instance will always be created and returned. Meanwhile, this warning can be suppressed, and the future behavior ensured, by passing a unique label to each axes instance. """Entry point for launching an IPython kernel</t>
+  </si>
+  <si>
+    <t>a1.그림함수()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2.그림함수()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3.그림함수()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4.그림함수()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림함수 넣기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.set_title(제목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 제목 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.tight_layout()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 개별 이름 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 겹친부분 안겹치게 해줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.suptitle(제목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표적인 라이브러리(pandas랑 잘 연동되는 애들), (몇만개씩 있다고 함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=plt.figure() #그림을 그리기 위한 도화지를 준비하고 A라고 지정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a1=A.add_subplot(1,1,1)</t>
+  </si>
+  <si>
+    <t># 1행 1열중의 1번째 자리, 한 개의 그림만 그린다는 뜻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># A의 1행 1열중의 1번째 자리를 a1이라고 지정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.그림함수(매개변수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 원하는그림을 넣음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.set_title(제목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.set_xlabel(x축이름)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.set_ylabel(y축이름)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt</t>
+  </si>
+  <si>
+    <t>import seaborn as sns</t>
+  </si>
+  <si>
+    <t># 데이터 처리를 위한 pandas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 연습용 데이터를 가져오기 위함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>tips=sns.load_dataset("tips")</t>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.hist(tips['total_bill'])</t>
+  </si>
+  <si>
+    <t>a1.hist(tips['total_bill'],bins=20)</t>
+  </si>
+  <si>
+    <t># bins는 막대기 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 겹쳐서 그려짐. 색깔이 바뀌면 똑같은거 또 그린거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.hist(tips['total_bill'],bins=30)</t>
+  </si>
+  <si>
+    <t># 반복해서 그리면 겹쳐서 색깔이 계속 바뀌어서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 새로 빈 figure를 잡아주는 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.scatter(tips['total_bill'],tips['tip'])</t>
+  </si>
+  <si>
+    <t>a1.set_xlabel("TOTAL BILL")</t>
+  </si>
+  <si>
+    <t>a1.set_ylabel("TIP")</t>
+  </si>
+  <si>
+    <t>a1.set_title('SCATTER')</t>
+  </si>
+  <si>
+    <t># alpha 투명도 의미</t>
+  </si>
+  <si>
+    <t># c는 color를 의미</t>
+  </si>
+  <si>
+    <t>a1.scatter(tips['total_bill'],tips['tip'],c=tips['size'])</t>
+  </si>
+  <si>
+    <t># s는 동그라미의 크기를 의미, *20을 통해 20 키움</t>
+  </si>
+  <si>
+    <t>a1.scatter(tips['total_bill'],tips['tip'],c=tips['size'],s=tips['size']*20)</t>
+  </si>
+  <si>
+    <t>a1.scatter(tips['total_bill'],tips['tip'],c=tips['size'],s=tips['size']*20,alpha=0.5)</t>
+  </si>
+  <si>
+    <t>a1.plot(tips['total_bill'])</t>
+  </si>
+  <si>
+    <t>male=tips[tips['sex']=='Male']</t>
+  </si>
+  <si>
+    <t>female=tips[tips['sex']=='Female']</t>
+  </si>
+  <si>
+    <t>a1.boxplot([male['total_bill'],female['total_bill']])</t>
+  </si>
+  <si>
+    <t>plt.scatter(tips['total_bill'],tips['tip'])</t>
+  </si>
+  <si>
+    <t>seaborn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 완성도가 있는 그림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스터마이징이 힘듬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib 와 연동 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.histplot(데이터,bins=막대기개수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀도 함수 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.kdeplot(데이터)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.kdeplot(데이터1, 데이터2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 값 개수 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.countplot(데이터)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산점도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.lmplot(x=데이터1,y=데이터2,data=데이터출처)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산점도 + 히스토그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.jointplot(x=데이터1,y=데이터2,data=데이터출처)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 막대그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.barplot(x=데이터1,y=데이터2,data=데이터출처)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.boxplot(x=데이터1,y=데이터2,data=데이터출처)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이올린 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.violinplot(x=데이터1,y=데이터2,data=데이터출처)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.pairplot(데이터출처)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성을 하나만 표시하는 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단변량 그래프(또는 일변량그래프)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 단변량 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 이변량 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 단변량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 이변량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다변량 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개변수 hue : 색상추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개변수 col : 집단별로 따로 그래프 그리기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집단별로 그래프 그리기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.set_style(배경) : 그래프 배경 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkgrid, whitegrid, dark, white, ticks 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacetGrid : 집단별로 그래프 그리는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>겹쳐서 그릴 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 시각화 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib.pyplot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pandas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단한 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스터마이징 자유도 높음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib과 연동가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[열].plot.그래프형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임에서 선택한 열을 그래프형식으로 그리겠다.(plot, 기본은 선형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 형식 예시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[열].plot.hist() # 히스토그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[열].plot.kde() # 밀도그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.plot.scatter(x=열이름,y=열이름) # 산점도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.plot.hexbin(x=열이름,y=열이름) # 육각형 산점도그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.plot.box()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.plot.pie(y=열이름) # 원그래프, x도 넣고 y고 넣고하는데 숫자데이터만 넣는게 가능한건가 아닌거같은데 확인 더 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 개의 데이터프레임을 하나의 데이터 프레임으로 합치는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat 함수(pandas 함수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.concat([df1,df2,…])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.concat([df1,df2,…],axis=1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행 이름을 기준으로 합침(열 방향으로 합침)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열 이름을 기준으로 합침(행 방향으로 진행)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># axis=1은 열방향으로 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행이름 바꾸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열이름 바꾸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.columns=[…]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 프레임 행 이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.index=[…]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 데이터프레임.index : 행 이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 데이터프레임.columns : 열 이름 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># axis=0은 행방향으로 진행, 0이 기본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore_index=True</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 열을 기준으로 데이터프레임을 합치는 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준열의 이름이 서로 같은 경우 on으로 대처 가정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df1.merge(df2,left_on=df1의 기준열,right_on=df2의 기준열)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del 데이터프레임[열이름]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 합치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락값 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비어있는 값.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락값이 있을 경우 데이터분석 및 연산이 원활하지 못할 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균값 또는 중앙값 등등 어떻게 처리할지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측이 가능한 값일 경우(함수처럼) 앞,뒤 값의 평균값으로 처리하기도함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답은 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>from numpy import NAN,NaN,nan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락값은 비교할 수 없음 단, pd.isnull() 함수로 누락값인지 아닌지 판단가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.isnull()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락값이면 True, 아니면 False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.notnull()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락값이 아니면 True, 누락값이면 False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락값 개수 구하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간데이터 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열(column)을 행으로 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>print("로우(행)방향으로 정렬:\n",b)</t>
-  </si>
-  <si>
-    <t>print("컬럼(열)방향으로 정렬:\n",c)</t>
-  </si>
-  <si>
-    <t># axis=1 은 열방향을 뜻함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># axis=0 은 행방향을 뜻함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=np.array([[20,5,100],[2,50,600],[1,30,200]])</t>
-  </si>
-  <si>
-    <t>b=np.argsort(a)</t>
-  </si>
-  <si>
-    <t>c=np.argsort(a)[::-1]</t>
-  </si>
-  <si>
-    <t>print("행렬 오름차순 정렬 시 원본 행렬의 인덱스:",b)</t>
-  </si>
-  <si>
-    <t>print("행렬 내림차순 정렬 시 원본 행렬의 인덱스:",c)</t>
-  </si>
-  <si>
-    <t>b=np.array([[7,8],[9,10],[11,12]])</t>
-  </si>
-  <si>
-    <t>c=np.dot(a,b)</t>
-  </si>
-  <si>
-    <t>print("행렬 내적 결과:\n",c)</t>
-  </si>
-  <si>
-    <t>행렬 내적 : np.dot   행렬끼리의 곱셉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전치행렬 : np.transpose      행과 열 바꾸기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=np.array([[1,2],[3,4]])</t>
-  </si>
-  <si>
-    <t>b=np.transpose(a)</t>
-  </si>
-  <si>
-    <t>print("원본 행렬:\n",a)</t>
-  </si>
-  <si>
-    <t>print("전치 행렬:\n",b)</t>
-  </si>
-  <si>
-    <t>print(bool(None))</t>
-  </si>
-  <si>
-    <t>print(type(None))</t>
-  </si>
-  <si>
-    <t>print(type(False))</t>
-  </si>
-  <si>
-    <t>if False == 0:</t>
-  </si>
-  <si>
-    <t>    print("False==0이다")</t>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;class 'NoneType'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;class 'bool'&gt;</t>
-  </si>
-  <si>
-    <t>False==0이다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판다스 Pandas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 분석을 할 떄 가장 많이 쓰이는 라이브러리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>표 형태의 데이터를 다루는 기능 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀,CSV 등 다양한 데이터 형식 지원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결측치 처리기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 형태 바꾸기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 삭제 및 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹화, 정렬, 결합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시계열 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열 및 날짜/시간 지원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 가시화: 많은 그래프 처리 라이브러리와의 연동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>import pandas as pd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀이랑 연동됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 형태 CSV는 데이터를 콤마(,)로 구분한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판다스의 read_csv() 함수를 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A,B,C,D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a0,b0,c0,d0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1,b1,c1,d1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a2,b2,c2,d2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a3,b3,c3,d3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터를 탭(Tab)으로 구분한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판다스에는 TSV파일을 읽어오는 함수는 따로 제공하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 판다스의 read_csv()함수를 사용하여 TSV파일을 읽어올 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd.read_csv("파일이름.csv")</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd.read_csv("파일이름.csv", sep=",")</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># 기본값은 sep="," 이다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># TSV를 읽기위해선 sep="\t"로 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd.read_csv("파일이름.csv", sep="\t")</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r: 읽기모드, 파일을 읽기만 할 때 사용, read, rt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>w: 쓰기모드, 파일에 내용을 쓸 때 사용, write, wt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a: 추가모드, 파일의 마지막에 새로운 내용을 추가시킬 때 사용, attach, at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>열: 시리즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>표: 데이터 프레임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd.Series() : 시리즈 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>딕셔너리로 시리즈 만들기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A={"a":1,"b":2,"c":3}</t>
-  </si>
-  <si>
-    <t>pd.Series(A)</t>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스트로 시리즈 만들기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd.Series(B)</t>
-  </si>
-  <si>
-    <t>B=["a","b","c"]</t>
-  </si>
-  <si>
-    <t># 행이 0부터 부여됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C=pd.Series(B,index=["가","나","다"])</t>
-  </si>
-  <si>
-    <t>C=pd.Series(B,index=["가","나","다"])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type(C)</t>
-  </si>
-  <si>
-    <t># 시리즈 자료형 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>print(B.index)</t>
-  </si>
-  <si>
-    <t>C.index</t>
-  </si>
-  <si>
-    <t>print(C.index)</t>
-  </si>
-  <si>
-    <t>print(C.values)</t>
-  </si>
-  <si>
-    <t># 시리즈 행 이름 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈 자료형 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈 행 및 값 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>딕셔너리로 데이터프레임 만들기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A={"한글":['가','나','다'],"영어":['a','b','c'],"숫지":[1,2,3]}</t>
-  </si>
-  <si>
-    <t>pd.DataFrame(A)</t>
-  </si>
-  <si>
-    <t>B=pd.DataFrame(A)</t>
-  </si>
-  <si>
-    <t>B=pd.DataFrame(A,index=['1행','2행','3행'])</t>
-  </si>
-  <si>
-    <t># index=[] 로 행 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># 행이 a,b,c, 열번호는 없는 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A={"한글":['가','나','다'],"영어":['a','b','c'],"숫자":[1,2,3]}</t>
-  </si>
-  <si>
-    <t>B=pd.DataFrame(A,index=['1행','2행','3행'],columns=['영어','숫자','한글'])</t>
-  </si>
-  <si>
-    <t>열 순서 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B=pd.DataFrame(A,index=['1행','2행','3행'],columns=['영어','숫자','1st','2nd'])</t>
-  </si>
-  <si>
-    <t>리스트로 데이터 프레임 만들기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A=[[1,"1st","일"],[2,'2nd',"이"],[3,'3rd','삼']]</t>
-  </si>
-  <si>
-    <t>pd.DataFrame(A,index=['1행','2행','3행'],columns=['숫자','순서','한글'])</t>
-  </si>
-  <si>
-    <t>데이터 프레임 열 이름 확인 : 데이터프레임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B=pd.DataFrame(A,index=['1행','2행','3행'],columns=['숫자','순서','한글'])</t>
-  </si>
-  <si>
-    <t>print(B.columns)</t>
-  </si>
-  <si>
-    <t># 행이름 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># 열이름 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B=["a","b","c"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>print(C)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># 시리즈 값 확인, 행렬로 나옴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A={"한글":['가','나','다'],"영어":['a','b','c'],"숫자":[1,2,3]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B=pd.DataFrame(A)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>print(B.index)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangeIndex(start=0, stop=3, step=1)</t>
-  </si>
-  <si>
-    <t>집단화, 통계함수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>melt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임을 집단별로 나누어 주는 함수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 집단별로 통계값을 구할 때 유용하게 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mean 평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>size 누락값을 포함한 데이터 수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>count 누락값을 제외한 데이터 수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>std 표준편차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min 최소값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max 최대값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum 전체합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var 분산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe 요약 통계량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>first 첫번째 행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>last 마지막 행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupby 함수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>plot 간단한 그래프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nunique 특정한 것을 세다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈와 데이터프레임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>열에 접근하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임[열]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임[['열1 이름','열2 이름']]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>행,열에 접근하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loc: 이름으로 접근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iloc: 순서로 접근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loc[0] : 행이름이 0인 것에 접근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iloc[0] : 0번째 행에 접근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loc[[0,10,100,1000]] : 이름이 0, 10 100, 1000인 행에 접근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iloc[[0,10,100,1000]] : 0,10,100,1000번째 행에 접근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loc[[0,10,100],["A","B"]] : 이름이 0,10,100인 행에 접근, 이름이 A,B인 열에 접근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iloc[[0,10,100],[0,10]] : 0,10,100번째 행에 접근, 0,10번째 열에 접근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원하는 행에 접근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임[조건]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임[(조건1)&amp;(조건2)] # 교집합, 조건1,2 모두 만족</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임[(조건1)|(조건2)] # 합집합, 조건1 또는 2에 만족</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임의 머리 부분 추출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임이 너무 많을 경우 전부 다 출력이 되면 너무 렉걸리니 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.head() # 데이터프레임이 몇 개가 되던 젤 앞부분(첫행인듯) 보여줌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.head(n=10) # 앞부분 10개까지 보여줌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.tail() # 맨 뒤부분 보여줌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.tail(n=10) # 맨 뒤 10개 보여줌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임 모양 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.shape</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임 열 이름 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.columns</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임의 열 자료형 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.dtypes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># 문자열은 object, 정수는 int, 싨는 float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임의 정보 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.info()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># type, 데이터용량 크기 등 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈 통계함수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.mean() 평균값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.std() 표준편차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.median() 중앙값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.max() 최대값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.min() 최소값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈 중복데이터 삭제하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.drop_duplicates()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.drop_duplicates()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈 특정 값 바꾸기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.replace(값, 변경값)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈 랜덤 샘플 추출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.sample(n) 랜덤으로 n개의 샘플 추출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈 정렬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.sort_values() # 오름차순 정렬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.sort_values(ascending=False) # 내림차순 정렬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.sort_index() # 행 번호 오름차순 정렬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.sort_index(ascending=False) # 행 번호 내림차순 정렬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈 프레임화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.to_frame()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 데이터 변환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd.to_datetime() # 문자열로 된 날짜 데이터를 시간 데이터로 변환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈.describe() 요약통계량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매개변수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>encoding : 문자표현방식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sep : 데이터를 읽어올 때 구분자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀파일불러오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd.read_excel(파일이름.xlsx, sheet_name=시트이름)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet1에 데이터가 저장되어 있다면 sheet_name을 안정해줘도됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet1의 이름이 다르거나 다른 sheet에 데이터가 있을경우 sheet_name 적어줘야함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀 병합이 되어있다면 에러가 날 수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickle 파일 불러오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd.read_pickle(파일이름.pickle)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSV, TSV, Excel : 눈으로 보고 싶을 때 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도가 느림, 용량이 큼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickle : 속도가 빠름. 많은 데이터도 낮은 용량으로 저장가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터가 이해하고싶은 내용으로 저장하기에 사람이 알아 볼 수는 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSV파일로 저장하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd.read_csv(파일이름.csv)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>index=True/False : 인덱스 유무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>행번호를 보이게할지 안보이게 할지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSV파일로 저장하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.to_csv(파일이름.csv)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSV 파일의 경우 sep='\t'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.to_csv(파일이름.tsv, sep='\t')</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀 파일로 저장하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.to_excel(파일이름.xlsx)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickle로 저장하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터프레임.to_pickle(파일이름.pickle)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니코드(utf-8), cp949, euc-kr 등</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터를 저장하고 불러오는 방법, Pandas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 시각화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균, 표준편차 등 수치만으로 봤을 때 완전 똑같은 4개의 데이터 집단이 있다고 4개의 데이터 집단은 모두 같은 데이터를 가진다고 볼 수는 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시) [100,0], [50,50]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>matplotlib : 그래프, 커스터마이징 유용함, 디자인 감각 있으면 좋음, 좀 어려움, 그래프들을 겹쳐서 그리기 좋음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pandas : 가시화 함수 들어있음(plot()), 간단한 그림을 그릴 때 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seaborn : 데이터 분석 연습용, 연습용 데이터와 가시화 함수 제공, 쉽고 자동으로 그려주는게 있음, 커스터마이징이 어려움</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>import matplotlib.pyplot as plt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>import seaborn as sns</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표적인 라이브러리(몇만개씩 있다고 함)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림을 그리기 위한 도화지 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A=plt.figure()</t>
-  </si>
-  <si>
-    <t>a1=A.add_subplot(2,2,1)</t>
-  </si>
-  <si>
-    <t>a2=A.add_subplot(2,2,2)</t>
-  </si>
-  <si>
-    <t>a3=A.add_subplot(2,2,3)</t>
-  </si>
-  <si>
-    <t>a4=A.add_subplot(2,2,4)</t>
-  </si>
-  <si>
-    <t>&lt;Figure size 432x288 with 0 Axes&gt;</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/usr/local/lib/python3.7/dist-packages/ipykernel_launcher.py:1: MatplotlibDeprecationWarning: Adding an axes using the same arguments as a previous axes currently reuses the earlier instance. In a future version, a new instance will always be created and returned. Meanwhile, this warning can be suppressed, and the future behavior ensured, by passing a unique label to each axes instance. """Entry point for launching an IPython kernel</t>
-  </si>
-  <si>
-    <t>a1.그림함수()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a2.그림함수()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a3.그림함수()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a4.그림함수()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림함수 넣기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1.set_title(제목)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 제목 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.tight_layout()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래프 개별 이름 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래프 겹친부분 안겹치게 해줌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.suptitle(제목)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>matplotlib 활용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.count_nonzero(데이터.isnull())</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># null 값들만 개수를 셈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[열이름].value_counts(dropna=False)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fillna(값) # 누락값(결측치)를 채우는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fillna(method='ffill')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># front fill, 바로 앞에 있는 값으로 채움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fillna(method='bfill')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># back fill, 뒤에 있는 값으로 채움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.interpolate()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># (선형)흐름에 따라서 결측치를 채워줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># count 함수는 누락값을 제외한 데이터수를 센다, size 함수는 누락값 포함, 그냥 info 함수쓰는게 좋다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터갯수-데이터프레임.count()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nan 값은 True가 아니여서 if문(if i == nan 이런식으로 사용)으로 비교 불가능 (무한대는 무한대와 같지 않다와 비슷, 정의가 불가능 하다는 뜻)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8436,7 +9050,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8516,10 +9130,18 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
+      <name val="D2Coding"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8639,7 +9261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8772,16 +9394,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9246,15 +9874,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>76032</xdr:colOff>
+      <xdr:colOff>95082</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>133262</xdr:rowOff>
+      <xdr:rowOff>85637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9277,7 +9905,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="45243750"/>
+          <a:off x="2914650" y="45196125"/>
           <a:ext cx="1342857" cy="704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10211,7 +10839,7 @@
   <dimension ref="A1:AP89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48:R48"/>
+      <selection activeCell="C49" sqref="C49:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10402,238 +11030,238 @@
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="46" t="s">
         <v>430</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44" t="s">
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44" t="s">
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44" t="s">
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44" t="s">
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44" t="s">
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44" t="s">
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AE48" s="44" t="s">
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AE48" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="AF48" s="44"/>
-      <c r="AG48" s="44"/>
-      <c r="AH48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="AF48" s="46"/>
+      <c r="AG48" s="46"/>
+      <c r="AH48" s="46"/>
+      <c r="AI48" s="46" t="s">
         <v>438</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44" t="s">
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
-      <c r="AP48" s="44"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
+      <c r="AP48" s="46"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44" t="s">
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44" t="s">
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46" t="s">
         <v>442</v>
       </c>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44" t="s">
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46" t="s">
         <v>443</v>
       </c>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44" t="s">
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46" t="s">
         <v>444</v>
       </c>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44" t="s">
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46" t="s">
         <v>445</v>
       </c>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="44" t="s">
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="AB49" s="44"/>
-      <c r="AC49" s="44"/>
-      <c r="AD49" s="44"/>
-      <c r="AE49" s="44" t="s">
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="AF49" s="44"/>
-      <c r="AG49" s="44"/>
-      <c r="AH49" s="44"/>
-      <c r="AI49" s="44" t="s">
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="AJ49" s="44"/>
-      <c r="AK49" s="44"/>
-      <c r="AL49" s="44"/>
-      <c r="AM49" s="44" t="s">
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="46"/>
+      <c r="AL49" s="46"/>
+      <c r="AM49" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="AN49" s="44"/>
-      <c r="AO49" s="44"/>
-      <c r="AP49" s="44"/>
+      <c r="AN49" s="46"/>
+      <c r="AO49" s="46"/>
+      <c r="AP49" s="46"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44" t="s">
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44" t="s">
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44" t="s">
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44" t="s">
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44" t="s">
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="44" t="s">
+      <c r="X50" s="46"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46"/>
+      <c r="AA50" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="AB50" s="44"/>
-      <c r="AC50" s="44"/>
-      <c r="AD50" s="44"/>
-      <c r="AE50" s="44" t="s">
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="46"/>
+      <c r="AD50" s="46"/>
+      <c r="AE50" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="AF50" s="44"/>
-      <c r="AG50" s="44"/>
-      <c r="AH50" s="44"/>
-      <c r="AI50" s="44" t="s">
+      <c r="AF50" s="46"/>
+      <c r="AG50" s="46"/>
+      <c r="AH50" s="46"/>
+      <c r="AI50" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="AJ50" s="44"/>
-      <c r="AK50" s="44"/>
-      <c r="AL50" s="44"/>
-      <c r="AM50" s="44" t="s">
+      <c r="AJ50" s="46"/>
+      <c r="AK50" s="46"/>
+      <c r="AL50" s="46"/>
+      <c r="AM50" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="AN50" s="44"/>
-      <c r="AO50" s="44"/>
-      <c r="AP50" s="44"/>
+      <c r="AN50" s="46"/>
+      <c r="AO50" s="46"/>
+      <c r="AP50" s="46"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44" t="s">
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46" t="s">
         <v>461</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44" t="s">
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46" t="s">
         <v>462</v>
       </c>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="44"/>
-      <c r="AC51" s="44"/>
-      <c r="AD51" s="44"/>
-      <c r="AE51" s="44"/>
-      <c r="AF51" s="44"/>
-      <c r="AG51" s="44"/>
-      <c r="AH51" s="44"/>
-      <c r="AI51" s="44"/>
-      <c r="AJ51" s="44"/>
-      <c r="AK51" s="44"/>
-      <c r="AL51" s="44"/>
-      <c r="AM51" s="44"/>
-      <c r="AN51" s="44"/>
-      <c r="AO51" s="44"/>
-      <c r="AP51" s="44"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="46"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="46"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="46"/>
+      <c r="AL51" s="46"/>
+      <c r="AM51" s="46"/>
+      <c r="AN51" s="46"/>
+      <c r="AO51" s="46"/>
+      <c r="AP51" s="46"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -10721,110 +11349,110 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
       <c r="G71" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H71" s="44" t="s">
+      <c r="H71" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
       <c r="G72" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H72" s="44" t="s">
+      <c r="H72" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
       <c r="O72" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P72" s="44" t="s">
+      <c r="P72" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="44"/>
-      <c r="T72" s="44"/>
+      <c r="Q72" s="46"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="46"/>
+      <c r="T72" s="46"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
       <c r="G73" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H73" s="44" t="s">
+      <c r="H73" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
       <c r="O73" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P73" s="44" t="s">
+      <c r="P73" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="44"/>
-      <c r="T73" s="44"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
       <c r="G74" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H74" s="44" t="s">
+      <c r="H74" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
       <c r="O74" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P74" s="44" t="s">
+      <c r="P74" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="44"/>
-      <c r="T74" s="44"/>
+      <c r="Q74" s="46"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="46"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C75" s="26"/>
@@ -10913,6 +11541,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="H73:N73"/>
+    <mergeCell ref="H74:N74"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="C73:F74"/>
+    <mergeCell ref="C71:F72"/>
+    <mergeCell ref="H71:N71"/>
+    <mergeCell ref="H72:N72"/>
+    <mergeCell ref="AE50:AH50"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="AI48:AL48"/>
+    <mergeCell ref="AI49:AL49"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="W48:Z48"/>
+    <mergeCell ref="W49:Z49"/>
+    <mergeCell ref="W50:Z50"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA48:AD48"/>
+    <mergeCell ref="AA49:AD49"/>
+    <mergeCell ref="AA50:AD50"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O51:R51"/>
     <mergeCell ref="S51:V51"/>
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="K49:N49"/>
@@ -10929,39 +11590,6 @@
     <mergeCell ref="G49:J49"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="W50:Z50"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA48:AD48"/>
-    <mergeCell ref="AA49:AD49"/>
-    <mergeCell ref="AA50:AD50"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="C73:F74"/>
-    <mergeCell ref="C71:F72"/>
-    <mergeCell ref="H71:N71"/>
-    <mergeCell ref="H72:N72"/>
-    <mergeCell ref="AE50:AH50"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="AI48:AL48"/>
-    <mergeCell ref="AI49:AL49"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="W48:Z48"/>
-    <mergeCell ref="W49:Z49"/>
-    <mergeCell ref="H73:N73"/>
-    <mergeCell ref="H74:N74"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12704,8 +13332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5CA641-B8F6-4669-B0D7-7E945B33C29D}">
   <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI30" sqref="AI30"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12889,17 +13517,17 @@
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C30" s="24" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C31" s="24" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C32" s="24" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -13524,8 +14152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE327160-21E7-4CA1-958C-4EB8851236A7}">
   <dimension ref="A1:AZ481"/>
   <sheetViews>
-    <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="AK450" sqref="AK450"/>
+    <sheetView topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="AS286" sqref="AS286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14605,63 +15233,71 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="209" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C209" s="23" t="s">
         <v>2135</v>
       </c>
     </row>
-    <row r="210" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C210" s="23" t="s">
         <v>2136</v>
       </c>
     </row>
-    <row r="211" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C211" s="23" t="s">
         <v>2137</v>
       </c>
     </row>
-    <row r="212" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C212" s="23" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="214" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C214" s="23" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="215" spans="3:22" x14ac:dyDescent="0.25">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="215" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C215" s="23" t="s">
         <v>2139</v>
       </c>
     </row>
-    <row r="216" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C216" s="23" t="s">
         <v>2140</v>
       </c>
       <c r="L216" s="24" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="217" spans="3:22" x14ac:dyDescent="0.25">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="217" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C217" s="23" t="s">
         <v>2141</v>
       </c>
       <c r="L217" s="24" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="V217" s="24" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="218" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C218" s="23" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="219" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C219" s="23" t="s">
         <v>2142</v>
       </c>
-    </row>
-    <row r="219" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C219" s="23" t="s">
-        <v>2143</v>
+      <c r="AI219" s="24" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="223" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AI223" s="24" t="s">
+        <v>2530</v>
       </c>
     </row>
     <row r="229" spans="2:23" x14ac:dyDescent="0.25">
@@ -14671,12 +15307,12 @@
     </row>
     <row r="230" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C230" s="23" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="231" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C231" s="23" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="W231" s="24" t="s">
         <v>291</v>
@@ -14684,17 +15320,17 @@
     </row>
     <row r="232" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C232" s="23" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="233" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C233" s="23" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="236" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B236" s="24" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="238" spans="2:23" x14ac:dyDescent="0.25">
@@ -14704,7 +15340,7 @@
     </row>
     <row r="239" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C239" s="23" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="P239" s="24" t="s">
         <v>291</v>
@@ -14712,32 +15348,32 @@
     </row>
     <row r="240" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C240" s="23" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C241" s="23" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B243" s="24" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C245" s="23" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C246" s="23" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C247" s="23" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="M247" s="24" t="s">
         <v>291</v>
@@ -14745,305 +15381,305 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C248" s="23" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B254" s="24" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="W254" s="24" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B255" s="24" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="W255" s="24" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B256" s="24" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="257" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B257" s="24" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="258" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B258" s="24" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="259" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B259" s="24" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="260" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B260" s="24" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="261" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B261" s="24" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="262" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B262" s="24" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="264" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B264" s="24" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="266" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B266" s="24" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="268" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B268" s="24" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="U268" s="24" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="269" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C269" s="24" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="U269" s="24" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="270" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C270" s="24" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="U270" s="24" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="AO270" s="24" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="271" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C271" s="24" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="U271" s="24" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="272" spans="2:41" x14ac:dyDescent="0.25">
       <c r="U272" s="24" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="274" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B274" s="24" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="275" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C275" s="24" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="276" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C276" s="24" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="277" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C277" s="24" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="279" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C279" s="24" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="280" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C280" s="24" t="s">
+        <v>2195</v>
+      </c>
+      <c r="Q280" s="24" t="s">
         <v>2196</v>
-      </c>
-      <c r="Q280" s="24" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="281" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C281" s="24" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="Q281" s="24" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="283" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B283" s="24" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="284" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C284" s="24" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="285" spans="2:21" x14ac:dyDescent="0.25">
       <c r="U285" s="24" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="286" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D286" s="23" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="M286" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="287" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D287" s="23" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="290" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C290" s="24" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="292" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D292" s="23" t="s">
+        <v>2211</v>
+      </c>
+      <c r="R292" s="24" t="s">
         <v>2212</v>
-      </c>
-      <c r="R292" s="24" t="s">
-        <v>2213</v>
       </c>
     </row>
     <row r="293" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D293" s="23" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="J293" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="297" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C297" s="24" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="299" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D299" s="23" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="300" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D300" s="23" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="R300" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="AF300" s="24" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="301" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D301" s="23" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="302" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D302" s="23" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G302" s="24" t="s">
         <v>2216</v>
-      </c>
-      <c r="G302" s="24" t="s">
-        <v>2217</v>
       </c>
     </row>
     <row r="304" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C304" s="24" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="306" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D306" s="23" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="307" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D307" s="23" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="L307" s="23"/>
     </row>
     <row r="308" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D308" s="23" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="S308" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="309" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D309" s="23" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="J309" s="24" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="310" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D310" s="23" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="J310" s="24" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="312" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C312" s="24" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="314" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D314" s="23" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="315" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D315" s="23" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="AB315" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="322" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D322" s="23" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="323" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D323" s="23" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="324" spans="3:28" x14ac:dyDescent="0.25">
@@ -15051,7 +15687,7 @@
         <v>137</v>
       </c>
       <c r="AB324" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="325" spans="3:28" x14ac:dyDescent="0.25">
@@ -15066,15 +15702,15 @@
     </row>
     <row r="331" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D331" s="23" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="332" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D332" s="23" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="AB332" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="333" spans="3:28" x14ac:dyDescent="0.25">
@@ -15084,20 +15720,20 @@
     </row>
     <row r="336" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C336" s="24" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="338" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D338" s="23" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="339" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D339" s="23" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="AF339" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="340" spans="3:34" x14ac:dyDescent="0.25">
@@ -15107,15 +15743,15 @@
     </row>
     <row r="343" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D343" s="23" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="344" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D344" s="23" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="AH344" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="345" spans="3:34" x14ac:dyDescent="0.25">
@@ -15125,462 +15761,476 @@
     </row>
     <row r="349" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C349" s="24" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="351" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D351" s="23" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E351" s="1"/>
       <c r="W351" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="352" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D352" s="23" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E352" s="1"/>
     </row>
     <row r="356" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D356" s="23" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="357" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D357" s="23" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AE357" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="363" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C363" s="24" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="365" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D365" s="23" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="366" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D366" s="23" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="AG366" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="367" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D367" s="23" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="J367" s="24" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="368" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D368" s="23" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="J368" s="24" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="371" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D371" s="23" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="372" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D372" s="23" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="AB372" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="AC372" s="23" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="373" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D373" s="23" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="375" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B375" s="24" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="377" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C377" s="24" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="378" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D378" s="24" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="379" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D379" s="24" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="381" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D381" s="24" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="382" spans="2:29" x14ac:dyDescent="0.25">
       <c r="E382" s="24" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="383" spans="2:29" x14ac:dyDescent="0.25">
       <c r="E383" s="24" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="384" spans="2:29" x14ac:dyDescent="0.25">
       <c r="E384" s="24" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="385" spans="2:39" x14ac:dyDescent="0.25">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="385" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E385" s="24" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="386" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E386" s="24" t="s">
         <v>2259</v>
       </c>
-      <c r="AM385" s="24" t="s">
+    </row>
+    <row r="387" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E387" s="24" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="388" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E388" s="24" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="389" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E389" s="24" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="390" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E390" s="24" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="391" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E391" s="24" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="392" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E392" s="24" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="394" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E394" s="24" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="396" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E396" s="24" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="398" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B398" s="24" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="400" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C400" s="24" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AJ400" s="24" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="401" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D401" s="24" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AK401" s="24" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="402" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D402" s="24" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AJ402" s="24" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="386" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="E386" s="24" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="387" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="E387" s="24" t="s">
-        <v>2261</v>
-      </c>
-      <c r="AM387" s="24" t="s">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="388" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="E388" s="24" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="389" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="E389" s="24" t="s">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="390" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="E390" s="24" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="391" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="E391" s="24" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="392" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="E392" s="24" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="394" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="E394" s="24" t="s">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="396" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="E396" s="24" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="398" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B398" s="24" t="s">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="400" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="C400" s="24" t="s">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D401" s="24" t="s">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="402" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D402" s="24" t="s">
+    <row r="403" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="AK403" s="24" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="404" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C404" s="24" t="s">
         <v>2273</v>
       </c>
     </row>
-    <row r="404" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C404" s="24" t="s">
+    <row r="405" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D405" s="24" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D405" s="24" t="s">
+    <row r="406" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D406" s="24" t="s">
         <v>2275</v>
       </c>
     </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D406" s="24" t="s">
+    <row r="407" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="E407" s="24" t="s">
         <v>2276</v>
       </c>
     </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E407" s="24" t="s">
+    <row r="408" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="E408" s="24" t="s">
         <v>2277</v>
       </c>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E408" s="24" t="s">
+    <row r="410" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="E410" s="24" t="s">
         <v>2278</v>
       </c>
     </row>
-    <row r="410" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E410" s="24" t="s">
+    <row r="411" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="E411" s="24" t="s">
         <v>2279</v>
       </c>
     </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E411" s="24" t="s">
+    <row r="413" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D413" s="24" t="s">
         <v>2280</v>
       </c>
     </row>
-    <row r="413" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D413" s="24" t="s">
+    <row r="414" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D414" s="24" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="414" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D414" s="24" t="s">
+    <row r="416" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C416" s="24" t="s">
         <v>2282</v>
-      </c>
-    </row>
-    <row r="416" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C416" s="24" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="418" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D418" s="24" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="419" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D419" s="24" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="420" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D420" s="24" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="422" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C422" s="24" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="423" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D423" s="24" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="425" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D425" s="24" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="426" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D426" s="24" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="427" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D427" s="24" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="428" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D428" s="24" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="430" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C430" s="24" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="432" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D432" s="24" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="434" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C434" s="24" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="434" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C434" s="24" t="s">
+      <c r="O434" s="24" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="436" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D436" s="24" t="s">
         <v>2295</v>
       </c>
-    </row>
-    <row r="436" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D436" s="24" t="s">
+      <c r="P436" s="24" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="438" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C438" s="24" t="s">
         <v>2296</v>
       </c>
     </row>
-    <row r="438" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C438" s="24" t="s">
+    <row r="440" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D440" s="24" t="s">
         <v>2297</v>
       </c>
-    </row>
-    <row r="440" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D440" s="24" t="s">
+      <c r="L440" s="24" t="s">
         <v>2298</v>
       </c>
-      <c r="L440" s="24" t="s">
+    </row>
+    <row r="442" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C442" s="24" t="s">
         <v>2299</v>
       </c>
     </row>
-    <row r="442" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C442" s="24" t="s">
+    <row r="444" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D444" s="24" t="s">
         <v>2300</v>
       </c>
-    </row>
-    <row r="444" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D444" s="24" t="s">
+      <c r="L444" s="24" t="s">
         <v>2301</v>
       </c>
-      <c r="L444" s="24" t="s">
+    </row>
+    <row r="446" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C446" s="24" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="446" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C446" s="24" t="s">
+    <row r="448" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D448" s="24" t="s">
         <v>2303</v>
-      </c>
-    </row>
-    <row r="448" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D448" s="24" t="s">
-        <v>2304</v>
       </c>
     </row>
     <row r="449" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D449" s="24" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="450" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D450" s="24" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="451" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D451" s="24" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="452" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D452" s="24" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="453" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D453" s="24" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="455" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C455" s="24" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="457" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D457" s="24" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="458" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D458" s="24" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="460" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C460" s="24" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="462" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D462" s="24" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="464" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C464" s="24" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="466" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D466" s="24" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="468" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C468" s="24" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="470" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D470" s="24" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="471" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D471" s="24" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="472" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D472" s="24" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="473" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D473" s="24" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="475" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C475" s="24" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="477" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D477" s="24" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="479" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C479" s="24" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D481" s="24" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
   </sheetData>
@@ -15593,281 +16243,281 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78969601-CFDF-4FEB-ADE1-B8CB4AE1E69F}">
-  <dimension ref="A1:AJ94"/>
+  <dimension ref="A1:AJ92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="AU70" sqref="AU70"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="AS72" sqref="AS72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="45"/>
+    <col min="1" max="1" width="2.7109375" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>2354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>2355</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Z4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="AA5" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="Z6" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="AA7" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
-        <v>2356</v>
+      <c r="A45" s="44" t="s">
+        <v>2355</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>2364</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C57" s="23" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="P57" t="s">
         <v>291</v>
       </c>
-      <c r="Q57" s="47" t="s">
-        <v>2371</v>
+      <c r="Q57" s="23" t="s">
+        <v>2369</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C60" s="23" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="L60" t="s">
         <v>291</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C62" s="23" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C63" s="23" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C64" s="23" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66" s="23" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="D66" t="s">
         <v>291</v>
@@ -15897,68 +16547,63 @@
         <v>291</v>
       </c>
     </row>
-    <row r="81" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="82" spans="2:36" x14ac:dyDescent="0.25">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="82" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="I82" t="s">
         <v>291</v>
       </c>
       <c r="J82" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="83" spans="2:36" x14ac:dyDescent="0.25">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="83" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="84" spans="2:36" x14ac:dyDescent="0.25">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="84" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="86" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="86" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="87" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="AJ87" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="89" spans="2:36" x14ac:dyDescent="0.25">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="89" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="91" spans="2:36" x14ac:dyDescent="0.25">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="91" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="92" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
         <v>2381</v>
-      </c>
-    </row>
-    <row r="92" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="94" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>2385</v>
       </c>
     </row>
   </sheetData>
@@ -15968,12 +16613,1177 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07853553-304D-4C3C-AC6C-4A6E8227C9AD}">
+  <dimension ref="A1:Y163"/>
+  <sheetViews>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="X166" sqref="X166"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="5"/>
+    <col min="2" max="16384" width="2.7109375" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="24" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="24" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="24" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="22" t="s">
+        <v>2387</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="22" t="s">
+        <v>2386</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="24" t="s">
+        <v>2390</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="24" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="24" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="24" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="24" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="22" t="s">
+        <v>2396</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="22" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="22" t="s">
+        <v>2398</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="22" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="22" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="22" t="s">
+        <v>2364</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>2403</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="22" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="22" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C33" s="22" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C34" s="22" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C36" s="22" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C37" s="22" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C38" s="22" t="s">
+        <v>2405</v>
+      </c>
+      <c r="Q38" s="24" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C41" s="22" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C42" s="22" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C43" s="22" t="s">
+        <v>2386</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C46" s="22" t="s">
+        <v>2364</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C47" s="22" t="s">
+        <v>2387</v>
+      </c>
+      <c r="M47" s="24" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C48" s="22" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C49" s="22" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C50" s="22" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C53" s="22" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C54" s="22" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C55" s="22" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C56" s="22" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C57" s="22" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C58" s="22" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C60" s="22" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C61" s="22" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C62" s="22" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Y62" s="22" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C63" s="22" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C64" s="22" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="65" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C65" s="22" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C67" s="22" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C68" s="22" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C69" s="22" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C70" s="22" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C71" s="22" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C72" s="22" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C74" s="22" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="76" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C76" s="22" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="77" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C77" s="22" t="s">
+        <v>2387</v>
+      </c>
+      <c r="S77" s="22" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="78" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C78" s="22" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="79" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C79" s="22" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C80" s="22" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="22" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="22" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="22" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="22" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="22" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="22" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="41" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="41" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="22" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="22" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B98" s="24" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B99" s="24" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C101" s="24" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C103" s="24" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C105" s="24" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D106" s="24" t="s">
+        <v>2431</v>
+      </c>
+      <c r="R106" s="24" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C108" s="24" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D109" s="24" t="s">
+        <v>2433</v>
+      </c>
+      <c r="L109" s="24" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D110" s="24" t="s">
+        <v>2434</v>
+      </c>
+      <c r="P110" s="24" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C112" s="24" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="113" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D113" s="24" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="115" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C115" s="24" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="116" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D116" s="24" t="s">
+        <v>2438</v>
+      </c>
+      <c r="W116" s="24" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="118" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C118" s="24" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="119" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D119" s="24" t="s">
+        <v>2440</v>
+      </c>
+      <c r="W119" s="24" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="121" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C121" s="24" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="122" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D122" s="24" t="s">
+        <v>2442</v>
+      </c>
+      <c r="W122" s="24" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="124" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C124" s="24" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="125" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D125" s="24" t="s">
+        <v>2444</v>
+      </c>
+      <c r="W125" s="24" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="127" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C127" s="24" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="128" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D128" s="24" t="s">
+        <v>2446</v>
+      </c>
+      <c r="X128" s="24" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="24" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="24" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="24" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="24" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="24" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="24" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="24" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="24" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="24" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="24" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="24" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="24" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="24" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="24" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="24" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="24" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="24" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="24" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="24" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="24" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="24" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="24" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="24" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9A83CB-0B2E-48F4-BF71-630048669345}">
+  <dimension ref="A1:AE60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="BB28" sqref="BB28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="47"/>
+    <col min="2" max="16384" width="2.7109375" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="47" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="24" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="24" t="s">
+        <v>2493</v>
+      </c>
+      <c r="S6" s="49" t="s">
+        <v>2370</v>
+      </c>
+      <c r="T6" s="49" t="s">
+        <v>2483</v>
+      </c>
+      <c r="U6" s="49" t="s">
+        <v>2484</v>
+      </c>
+      <c r="W6" s="49" t="s">
+        <v>2370</v>
+      </c>
+      <c r="X6" s="49" t="s">
+        <v>2483</v>
+      </c>
+      <c r="Y6" s="49" t="s">
+        <v>2484</v>
+      </c>
+      <c r="AA6" s="49" t="s">
+        <v>2370</v>
+      </c>
+      <c r="AB6" s="49" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AC6" s="49" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="47"/>
+      <c r="D7" s="24" t="s">
+        <v>2482</v>
+      </c>
+      <c r="S7" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="T7" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="U7" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>2490</v>
+      </c>
+      <c r="W7" s="49" t="s">
+        <v>1145</v>
+      </c>
+      <c r="X7" s="49" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Y7" s="49" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Z7" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA7" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="AB7" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AC7" s="49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B8" s="47"/>
+      <c r="S8" s="49" t="s">
+        <v>2486</v>
+      </c>
+      <c r="T8" s="49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="U8" s="49" t="s">
+        <v>1926</v>
+      </c>
+      <c r="W8" s="49" t="s">
+        <v>2488</v>
+      </c>
+      <c r="X8" s="49" t="s">
+        <v>2489</v>
+      </c>
+      <c r="Y8" s="49" t="s">
+        <v>2485</v>
+      </c>
+      <c r="AA8" s="49" t="s">
+        <v>2486</v>
+      </c>
+      <c r="AB8" s="49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AC8" s="49" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B9" s="47"/>
+      <c r="E9" s="24" t="s">
+        <v>2503</v>
+      </c>
+      <c r="AA9" s="49" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AB9" s="49" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AC9" s="49" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="47"/>
+      <c r="E10" s="24" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AA10" s="49" t="s">
+        <v>2488</v>
+      </c>
+      <c r="AB10" s="49" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AC10" s="49" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B11" s="47"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B12" s="47"/>
+      <c r="C12" s="24" t="s">
+        <v>2492</v>
+      </c>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49" t="s">
+        <v>2370</v>
+      </c>
+      <c r="U12" s="49" t="s">
+        <v>2483</v>
+      </c>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49" t="s">
+        <v>2370</v>
+      </c>
+      <c r="Y12" s="49" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49" t="s">
+        <v>2370</v>
+      </c>
+      <c r="AC12" s="49" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AD12" s="49" t="s">
+        <v>2370</v>
+      </c>
+      <c r="AE12" s="49" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="47"/>
+      <c r="D13" s="24" t="s">
+        <v>2491</v>
+      </c>
+      <c r="S13" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="T13" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="U13" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>2490</v>
+      </c>
+      <c r="W13" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="X13" s="49" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Y13" s="49" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Z13" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA13" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="AB13" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AC13" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD13" s="49" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AE13" s="49" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B14" s="47"/>
+      <c r="S14" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="U14" s="49" t="s">
+        <v>1926</v>
+      </c>
+      <c r="W14" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="X14" s="49" t="s">
+        <v>2489</v>
+      </c>
+      <c r="Y14" s="49" t="s">
+        <v>2485</v>
+      </c>
+      <c r="AA14" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AB14" s="49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AC14" s="49" t="s">
+        <v>1926</v>
+      </c>
+      <c r="AD14" s="49" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AE14" s="49" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="47"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B16" s="47"/>
+      <c r="C16" s="24" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="47"/>
+      <c r="D17" s="24" t="s">
+        <v>2500</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="47"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="47"/>
+      <c r="C19" s="24" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
+      <c r="D20" s="24" t="s">
+        <v>2497</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="47"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="47"/>
+      <c r="C22" s="24" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="47"/>
+      <c r="D23" s="24" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="47"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="47"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B26" s="47" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B27" s="47"/>
+      <c r="C27" s="24" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B28" s="47"/>
+      <c r="Z28" s="24" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="47"/>
+      <c r="C29" s="24" t="s">
+        <v>2509</v>
+      </c>
+      <c r="AA29" s="24" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="47"/>
+      <c r="C30" s="24" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="24" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="24" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="24" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="24" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="24" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="24" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="24" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="24" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="24" t="s">
+        <v>2543</v>
+      </c>
+      <c r="N49" s="24" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="24" t="s">
+        <v>2531</v>
+      </c>
+      <c r="O51" s="24" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="24" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="24" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C56" s="24" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C58" s="24" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L58" s="24" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C59" s="24" t="s">
+        <v>2538</v>
+      </c>
+      <c r="L59" s="24" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
+        <v>2540</v>
+      </c>
+      <c r="M60" s="24" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3D211E-0E64-4584-A73A-0AD66FD9DF98}">
   <dimension ref="A1:BH278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22691,7 +24501,7 @@
         <v>150</v>
       </c>
       <c r="AS2" s="23" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -22702,7 +24512,7 @@
         <v>368</v>
       </c>
       <c r="AS3" s="23" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>287</v>
@@ -22719,13 +24529,13 @@
         <v>286</v>
       </c>
       <c r="AS4" s="23" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="BB4" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="BC4" s="1" t="s">
         <v>2165</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
@@ -22742,10 +24552,10 @@
         <v>286</v>
       </c>
       <c r="AS5" s="23" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
@@ -22759,10 +24569,10 @@
         <v>287</v>
       </c>
       <c r="AS6" s="23" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
@@ -23624,7 +25434,7 @@
   <dimension ref="A1:BE113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24471,7 +26281,7 @@
   <dimension ref="A1:BG163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25640,7 +27450,7 @@
   <dimension ref="A1:BA251"/>
   <sheetViews>
     <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+      <selection activeCell="AA196" sqref="AA196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28943,8 +30753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206C6D58-6B52-42A7-B320-B265E10D1206}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AE50" sqref="AE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
